--- a/Code/Results/Cases/Case_5_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.567322799553722</v>
+        <v>3.765581309414529</v>
       </c>
       <c r="C2">
-        <v>0.6403844818222808</v>
+        <v>1.055640940831353</v>
       </c>
       <c r="D2">
-        <v>0.3340049599324288</v>
+        <v>0.01654993278253514</v>
       </c>
       <c r="E2">
-        <v>0.2010331850242295</v>
+        <v>1.474710403232066</v>
       </c>
       <c r="F2">
-        <v>6.51812376729805</v>
+        <v>2.059460211295885</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,27 +454,33 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9904599414115367</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.631582018970093</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.192816826049068</v>
+        <v>3.24090425682482</v>
       </c>
       <c r="C3">
-        <v>0.5462845433521863</v>
+        <v>0.9125704632213854</v>
       </c>
       <c r="D3">
-        <v>0.2945346180771509</v>
+        <v>0.0164095718760926</v>
       </c>
       <c r="E3">
-        <v>0.1739465713804478</v>
+        <v>1.254751680500036</v>
       </c>
       <c r="F3">
-        <v>5.688664823310972</v>
+        <v>1.801569520456695</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,27 +501,33 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8469051482029286</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>1.4304229807029</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.969304830060736</v>
+        <v>2.924170130636639</v>
       </c>
       <c r="C4">
-        <v>0.4901942494324487</v>
+        <v>0.8261025351219189</v>
       </c>
       <c r="D4">
-        <v>0.2709809819062201</v>
+        <v>0.01646898221196835</v>
       </c>
       <c r="E4">
-        <v>0.1578073641478284</v>
+        <v>1.124120178598758</v>
       </c>
       <c r="F4">
-        <v>5.193410502040308</v>
+        <v>1.649830150655134</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -530,27 +548,33 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7612921904015124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1.312427265674586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.879585232495003</v>
+        <v>2.796223706768103</v>
       </c>
       <c r="C5">
-        <v>0.4676879109448748</v>
+        <v>0.7911450132138214</v>
       </c>
       <c r="D5">
-        <v>0.2615254139069094</v>
+        <v>0.01652513423836766</v>
       </c>
       <c r="E5">
-        <v>0.1513353218761182</v>
+        <v>1.071808703937847</v>
       </c>
       <c r="F5">
-        <v>4.994570983839736</v>
+        <v>1.589439185459526</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -571,27 +595,33 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7269407113842519</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>1.265549684207912</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.864762837467367</v>
+        <v>2.775039839177055</v>
       </c>
       <c r="C6">
-        <v>0.4639699749488102</v>
+        <v>0.7853553625456868</v>
       </c>
       <c r="D6">
-        <v>0.2599631721232498</v>
+        <v>0.01653626271488662</v>
       </c>
       <c r="E6">
-        <v>0.1502664640644298</v>
+        <v>1.063173010097401</v>
       </c>
       <c r="F6">
-        <v>4.961719020888694</v>
+        <v>1.579492639782359</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -612,27 +642,33 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7212663909488981</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1.257833680942966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.968089634393493</v>
+        <v>2.922440338117894</v>
       </c>
       <c r="C7">
-        <v>0.4898893904727686</v>
+        <v>0.8256300401152714</v>
       </c>
       <c r="D7">
-        <v>0.2708529182432642</v>
+        <v>0.01646961588254214</v>
       </c>
       <c r="E7">
-        <v>0.1577196788981681</v>
+        <v>1.123411188401107</v>
       </c>
       <c r="F7">
-        <v>5.190717493021737</v>
+        <v>1.64901011933722</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -653,27 +689,33 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7608268650671306</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>1.311790396417081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.43669328973283</v>
+        <v>3.583395639485957</v>
       </c>
       <c r="C8">
-        <v>0.6075412672169307</v>
+        <v>1.005980806185846</v>
       </c>
       <c r="D8">
-        <v>0.3202358425852481</v>
+        <v>0.01646829993664767</v>
       </c>
       <c r="E8">
-        <v>0.1915794440844962</v>
+        <v>1.397827248176014</v>
       </c>
       <c r="F8">
-        <v>6.228860909848976</v>
+        <v>1.96902940785472</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -694,27 +736,33 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9403729567672912</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>1.560961842020532</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.420220839856313</v>
+        <v>4.935009646930325</v>
       </c>
       <c r="C9">
-        <v>0.8555642638527274</v>
+        <v>1.374160134603471</v>
       </c>
       <c r="D9">
-        <v>0.4239881147744029</v>
+        <v>0.0178718794591326</v>
       </c>
       <c r="E9">
-        <v>0.2628817578614786</v>
+        <v>1.981310337271012</v>
       </c>
       <c r="F9">
-        <v>8.404953572649731</v>
+        <v>2.660363970414977</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -735,27 +783,33 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.317827578950869</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>2.102812658766794</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.205059692867167</v>
+        <v>5.982673972406587</v>
       </c>
       <c r="C10">
-        <v>1.055014523893163</v>
+        <v>1.659529521976083</v>
       </c>
       <c r="D10">
-        <v>0.5069578932666161</v>
+        <v>0.02019229129354017</v>
       </c>
       <c r="E10">
-        <v>0.3199365437949879</v>
+        <v>2.455308556162791</v>
       </c>
       <c r="F10">
-        <v>10.13775005213822</v>
+        <v>3.226052335717412</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -776,27 +830,33 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.619540956318687</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>2.549100236454933</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.582235339107513</v>
+        <v>6.477048679074016</v>
       </c>
       <c r="C11">
-        <v>1.151444947855083</v>
+        <v>1.794308847674699</v>
       </c>
       <c r="D11">
-        <v>0.5468937853428883</v>
+        <v>0.02165644630953878</v>
       </c>
       <c r="E11">
-        <v>0.347389471159012</v>
+        <v>2.686043843342759</v>
       </c>
       <c r="F11">
-        <v>10.96904575498553</v>
+        <v>3.501299418471376</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -817,27 +877,33 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.764681485956174</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>2.767068196492019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.728671303095609</v>
+        <v>6.667436288316821</v>
       </c>
       <c r="C12">
-        <v>1.188992628595599</v>
+        <v>1.846244527778765</v>
       </c>
       <c r="D12">
-        <v>0.5624095337823576</v>
+        <v>0.02228384266161854</v>
       </c>
       <c r="E12">
-        <v>0.3580524465233026</v>
+        <v>2.776171889804445</v>
       </c>
       <c r="F12">
-        <v>11.29150870771605</v>
+        <v>3.608671590070372</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -858,27 +924,33 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.821055196511352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>2.852231820811383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.696960108697397</v>
+        <v>6.626280166552021</v>
       </c>
       <c r="C13">
-        <v>1.18085624532489</v>
+        <v>1.835015936725767</v>
       </c>
       <c r="D13">
-        <v>0.5590490345170451</v>
+        <v>0.02214521127837443</v>
       </c>
       <c r="E13">
-        <v>0.355743149084212</v>
+        <v>2.756627839203901</v>
       </c>
       <c r="F13">
-        <v>11.22169218015699</v>
+        <v>3.58539694504114</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -899,27 +971,33 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.808846170469039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>2.833764909459518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.594205740234827</v>
+        <v>6.492644231476277</v>
       </c>
       <c r="C14">
-        <v>1.154511944143678</v>
+        <v>1.798562431527273</v>
       </c>
       <c r="D14">
-        <v>0.5481618922444795</v>
+        <v>0.02170650611837388</v>
       </c>
       <c r="E14">
-        <v>0.3482610275146598</v>
+        <v>2.693399676931435</v>
       </c>
       <c r="F14">
-        <v>10.99541157538704</v>
+        <v>3.510066326422589</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -940,27 +1018,33 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.769289258678896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>2.77401897674774</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.531759480018025</v>
+        <v>6.411223060754423</v>
       </c>
       <c r="C15">
-        <v>1.13851680918421</v>
+        <v>1.77635668671553</v>
       </c>
       <c r="D15">
-        <v>0.5415469773874122</v>
+        <v>0.0214477702635385</v>
       </c>
       <c r="E15">
-        <v>0.3437145397217165</v>
+        <v>2.655049000411751</v>
       </c>
       <c r="F15">
-        <v>10.8578566367936</v>
+        <v>3.464352273590663</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -981,27 +1065,33 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.74525276076136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>2.737780445592804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.180872905401543</v>
+        <v>5.950773442881086</v>
       </c>
       <c r="C16">
-        <v>1.048844255823411</v>
+        <v>1.650836057595711</v>
       </c>
       <c r="D16">
-        <v>0.5043983521624398</v>
+        <v>0.02010596191678715</v>
       </c>
       <c r="E16">
-        <v>0.3181767391640236</v>
+        <v>2.440579895591611</v>
       </c>
       <c r="F16">
-        <v>10.08440813786046</v>
+        <v>3.208470414147598</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1022,27 +1112,33 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.610236750044422</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>2.535194568584501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.971232549630599</v>
+        <v>5.673260022378543</v>
       </c>
       <c r="C17">
-        <v>0.9954286127731962</v>
+        <v>1.575223014919743</v>
       </c>
       <c r="D17">
-        <v>0.4822204202979492</v>
+        <v>0.01939650085017064</v>
       </c>
       <c r="E17">
-        <v>0.3029271787290853</v>
+        <v>2.313249695385935</v>
       </c>
       <c r="F17">
-        <v>9.621900042014829</v>
+        <v>3.056449288817163</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1063,27 +1159,33 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.529607979293417</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>2.415050076836536</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.852498704201082</v>
+        <v>5.515271909071203</v>
       </c>
       <c r="C18">
-        <v>0.9652265979960077</v>
+        <v>1.532186479176687</v>
       </c>
       <c r="D18">
-        <v>0.4696651045529734</v>
+        <v>0.01902586970261311</v>
       </c>
       <c r="E18">
-        <v>0.2942933911937757</v>
+        <v>2.241393030178884</v>
       </c>
       <c r="F18">
-        <v>9.359823249952228</v>
+        <v>2.970656690819794</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1104,27 +1206,33 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.483955223041718</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>2.347319657670056</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.812595369342262</v>
+        <v>5.46204301062761</v>
       </c>
       <c r="C19">
-        <v>0.9550845651534701</v>
+        <v>1.517688074628722</v>
       </c>
       <c r="D19">
-        <v>0.4654464934754969</v>
+        <v>0.01890643183046947</v>
       </c>
       <c r="E19">
-        <v>0.2913923378310912</v>
+        <v>2.217285257705129</v>
       </c>
       <c r="F19">
-        <v>9.271726262762996</v>
+        <v>2.941876137489913</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1145,27 +1253,33 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.468614657267608</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>2.324610367615662</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.993353459505613</v>
+        <v>5.702628992191137</v>
       </c>
       <c r="C20">
-        <v>1.00105947337309</v>
+        <v>1.583223952261505</v>
       </c>
       <c r="D20">
-        <v>0.4845600048425922</v>
+        <v>0.01946805831576981</v>
       </c>
       <c r="E20">
-        <v>0.3045359667898921</v>
+        <v>2.326657609536994</v>
       </c>
       <c r="F20">
-        <v>9.670716768668484</v>
+        <v>3.072458129791755</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1186,27 +1300,33 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.538114432691799</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>2.427694397399378</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.624282777541225</v>
+        <v>6.531804446511501</v>
       </c>
       <c r="C21">
-        <v>1.16221995928359</v>
+        <v>1.80924366986892</v>
       </c>
       <c r="D21">
-        <v>0.5513483385753659</v>
+        <v>0.02183325317873397</v>
       </c>
       <c r="E21">
-        <v>0.3504509858643985</v>
+        <v>2.711891204400814</v>
       </c>
       <c r="F21">
-        <v>11.06165403637164</v>
+        <v>3.532102339964723</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1227,27 +1347,33 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.780867217545619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>2.791492285420702</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.058121945518792</v>
+        <v>7.092641575630353</v>
       </c>
       <c r="C22">
-        <v>1.273699713094032</v>
+        <v>1.962311598414146</v>
       </c>
       <c r="D22">
-        <v>0.5973386248229531</v>
+        <v>0.02381374602036246</v>
       </c>
       <c r="E22">
-        <v>0.3820496859464981</v>
+        <v>2.980103593423465</v>
       </c>
       <c r="F22">
-        <v>12.01636887705848</v>
+        <v>3.851182331639052</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1268,27 +1394,33 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.947931728769149</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>3.044852691099379</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.824326087097461</v>
+        <v>6.791337683458096</v>
       </c>
       <c r="C23">
-        <v>1.213553484179215</v>
+        <v>1.880054216730684</v>
       </c>
       <c r="D23">
-        <v>0.5725479696837397</v>
+        <v>0.02271123507217965</v>
       </c>
       <c r="E23">
-        <v>0.3650189122135004</v>
+        <v>2.835215076688144</v>
       </c>
       <c r="F23">
-        <v>11.50205841707248</v>
+        <v>3.678952501508405</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1309,27 +1441,33 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.857886632907523</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>2.90801617803767</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.983347068327703</v>
+        <v>5.689346472976979</v>
       </c>
       <c r="C24">
-        <v>0.9985121963031531</v>
+        <v>1.579605388707989</v>
       </c>
       <c r="D24">
-        <v>0.4835016766742228</v>
+        <v>0.01943559218916491</v>
       </c>
       <c r="E24">
-        <v>0.3038082219704279</v>
+        <v>2.320591737151943</v>
       </c>
       <c r="F24">
-        <v>9.648634918794556</v>
+        <v>3.065215570333947</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1350,27 +1488,33 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.534266499223875</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>2.421973753614537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.145127747361016</v>
+        <v>4.56148808885473</v>
       </c>
       <c r="C25">
-        <v>0.7860020716545364</v>
+        <v>1.27244742367202</v>
       </c>
       <c r="D25">
-        <v>0.3949464668719145</v>
+        <v>0.01730229344108025</v>
       </c>
       <c r="E25">
-        <v>0.2429124213883469</v>
+        <v>1.816997756914688</v>
       </c>
       <c r="F25">
-        <v>7.796754427442323</v>
+        <v>2.464756340942415</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1391,7 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.212176977132479</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1.949067437102016</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.765581309414529</v>
+        <v>2.526841363068343</v>
       </c>
       <c r="C2">
-        <v>1.055640940831353</v>
+        <v>0.6758256720019347</v>
       </c>
       <c r="D2">
-        <v>0.01654993278253514</v>
+        <v>0.1299029981800572</v>
       </c>
       <c r="E2">
-        <v>1.474710403232066</v>
+        <v>0.07704899662277853</v>
       </c>
       <c r="F2">
-        <v>2.059460211295885</v>
+        <v>0.6121187292590378</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1817513165203195</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0658622806016318</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7173252769307936</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.631582018970093</v>
+        <v>1.342666843157247</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.24090425682482</v>
+        <v>2.199683128156721</v>
       </c>
       <c r="C3">
-        <v>0.9125704632213854</v>
+        <v>0.5897847671705279</v>
       </c>
       <c r="D3">
-        <v>0.0164095718760926</v>
+        <v>0.118661011336286</v>
       </c>
       <c r="E3">
-        <v>1.254751680500036</v>
+        <v>0.07319162462139062</v>
       </c>
       <c r="F3">
-        <v>1.801569520456695</v>
+        <v>0.5878721231340407</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1932491162932468</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.06525120070751456</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6245316173048607</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.4304229807029</v>
+        <v>1.304927839279699</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.924170130636639</v>
+        <v>1.998962435387114</v>
       </c>
       <c r="C4">
-        <v>0.8261025351219189</v>
+        <v>0.5369811744960771</v>
       </c>
       <c r="D4">
-        <v>0.01646898221196835</v>
+        <v>0.1118467349245051</v>
       </c>
       <c r="E4">
-        <v>1.124120178598758</v>
+        <v>0.07093559723426068</v>
       </c>
       <c r="F4">
-        <v>1.649830150655134</v>
+        <v>0.5746258523045569</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2011861315371579</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.06503645709365102</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.5677272419193145</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.312427265674586</v>
+        <v>1.286181155012002</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.796223706768103</v>
+        <v>1.917179163693447</v>
       </c>
       <c r="C5">
-        <v>0.7911450132138214</v>
+        <v>0.5154625582548249</v>
       </c>
       <c r="D5">
-        <v>0.01652513423836766</v>
+        <v>0.1090906239096725</v>
       </c>
       <c r="E5">
-        <v>1.071808703937847</v>
+        <v>0.07004315682087991</v>
       </c>
       <c r="F5">
-        <v>1.589439185459526</v>
+        <v>0.5696185099195787</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2046312423271068</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.06498749020094863</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5446128680562907</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.265549684207912</v>
+        <v>1.279594041842898</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.775039839177055</v>
+        <v>1.903599083184389</v>
       </c>
       <c r="C6">
-        <v>0.7853553625456868</v>
+        <v>0.5118891629948905</v>
       </c>
       <c r="D6">
-        <v>0.01653626271488662</v>
+        <v>0.1086341868162037</v>
       </c>
       <c r="E6">
-        <v>1.063173010097401</v>
+        <v>0.06989655460449029</v>
       </c>
       <c r="F6">
-        <v>1.579492639782359</v>
+        <v>0.5688100125251552</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2052157466929909</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.06498163608046781</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5407765316319129</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.257833680942966</v>
+        <v>1.278562104763651</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.922440338117894</v>
+        <v>1.99785946336101</v>
       </c>
       <c r="C7">
-        <v>0.8256300401152714</v>
+        <v>0.5366909790345744</v>
       </c>
       <c r="D7">
-        <v>0.01646961588254214</v>
+        <v>0.1118094828446416</v>
       </c>
       <c r="E7">
-        <v>1.123411188401107</v>
+        <v>0.07092345426181268</v>
       </c>
       <c r="F7">
-        <v>1.64901011933722</v>
+        <v>0.5745567682955084</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2012317530610943</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.06503564297126019</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.5674153879948065</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.311790396417081</v>
+        <v>1.286088135760366</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.583395639485957</v>
+        <v>2.413987867218623</v>
       </c>
       <c r="C8">
-        <v>1.005980806185846</v>
+        <v>0.6461488660570467</v>
       </c>
       <c r="D8">
-        <v>0.01646829993664767</v>
+        <v>0.1260075197565271</v>
       </c>
       <c r="E8">
-        <v>1.397827248176014</v>
+        <v>0.07569480245925675</v>
       </c>
       <c r="F8">
-        <v>1.96902940785472</v>
+        <v>0.6034042078377198</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1855275629558708</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.06561716001149165</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.6852887174157232</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.560961842020532</v>
+        <v>1.328698618159109</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.935009646930325</v>
+        <v>3.232608343245204</v>
       </c>
       <c r="C9">
-        <v>1.374160134603471</v>
+        <v>0.8613629193832537</v>
       </c>
       <c r="D9">
-        <v>0.0178718794591326</v>
+        <v>0.1546220882530491</v>
       </c>
       <c r="E9">
-        <v>1.981310337271012</v>
+        <v>0.08600872819420502</v>
       </c>
       <c r="F9">
-        <v>2.660363970414977</v>
+        <v>0.6740538423042111</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.1621633918434071</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.06811707222353647</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.9182536404635115</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.102812658766794</v>
+        <v>1.450261429483191</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.982673972406587</v>
+        <v>3.837723176344753</v>
       </c>
       <c r="C10">
-        <v>1.659529521976083</v>
+        <v>1.020385914480897</v>
       </c>
       <c r="D10">
-        <v>0.02019229129354017</v>
+        <v>0.1762238024295186</v>
       </c>
       <c r="E10">
-        <v>2.455308556162791</v>
+        <v>0.09426732143530359</v>
       </c>
       <c r="F10">
-        <v>3.226052335717412</v>
+        <v>0.7361121913202169</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.1502218073713628</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.07091051366460732</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.09121801261503</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.549100236454933</v>
+        <v>1.56702917077061</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.477048679074016</v>
+        <v>4.114314281640873</v>
       </c>
       <c r="C11">
-        <v>1.794308847674699</v>
+        <v>1.093063107682894</v>
       </c>
       <c r="D11">
-        <v>0.02165644630953878</v>
+        <v>0.1862025736326558</v>
       </c>
       <c r="E11">
-        <v>2.686043843342759</v>
+        <v>0.09819552335834558</v>
       </c>
       <c r="F11">
-        <v>3.501299418471376</v>
+        <v>0.7669244306333809</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.14608940718567</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.07241971132121705</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.170465611587304</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.767068196492019</v>
+        <v>1.627139834946519</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.667436288316821</v>
+        <v>4.219287396085861</v>
       </c>
       <c r="C12">
-        <v>1.846244527778765</v>
+        <v>1.120644686209232</v>
       </c>
       <c r="D12">
-        <v>0.02228384266161854</v>
+        <v>0.190005436610079</v>
       </c>
       <c r="E12">
-        <v>2.776171889804445</v>
+        <v>0.09970975184902642</v>
       </c>
       <c r="F12">
-        <v>3.608671590070372</v>
+        <v>0.7789973581484162</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.1447265253687462</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.07302826065010493</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.200570961939235</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.852231820811383</v>
+        <v>1.651000673029358</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.626280166552021</v>
+        <v>4.196668406070046</v>
       </c>
       <c r="C13">
-        <v>1.835015936725767</v>
+        <v>1.114701617741616</v>
       </c>
       <c r="D13">
-        <v>0.02214521127837443</v>
+        <v>0.1891853115477886</v>
       </c>
       <c r="E13">
-        <v>2.756627839203901</v>
+        <v>0.09938241341069087</v>
       </c>
       <c r="F13">
-        <v>3.58539694504114</v>
+        <v>0.7763786588654966</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.1450108118934956</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.07289550467118744</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.194082718705488</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.833764909459518</v>
+        <v>1.645811416067602</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.492644231476277</v>
+        <v>4.12294552628714</v>
       </c>
       <c r="C14">
-        <v>1.798562431527273</v>
+        <v>1.095330980532196</v>
       </c>
       <c r="D14">
-        <v>0.02170650611837388</v>
+        <v>0.1865149405398228</v>
       </c>
       <c r="E14">
-        <v>2.693399676931435</v>
+        <v>0.09831955227037881</v>
       </c>
       <c r="F14">
-        <v>3.510066326422589</v>
+        <v>0.7679093580609901</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.1459731440676144</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.07246901795702598</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.172940384114682</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.77401897674774</v>
+        <v>1.629080313230816</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.411223060754423</v>
+        <v>4.077819986929853</v>
       </c>
       <c r="C15">
-        <v>1.77635668671553</v>
+        <v>1.083474128909018</v>
       </c>
       <c r="D15">
-        <v>0.0214477702635385</v>
+        <v>0.1848824720881623</v>
       </c>
       <c r="E15">
-        <v>2.655049000411751</v>
+        <v>0.0976720607401802</v>
       </c>
       <c r="F15">
-        <v>3.464352273590663</v>
+        <v>0.7627754566600657</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.1465893685921422</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.07221269293184918</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.1600030540978</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.737780445592804</v>
+        <v>1.618977927548656</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.950773442881086</v>
+        <v>3.819677568585121</v>
       </c>
       <c r="C16">
-        <v>1.650836057595711</v>
+        <v>1.015644058127435</v>
       </c>
       <c r="D16">
-        <v>0.02010596191678715</v>
+        <v>0.17557491463144</v>
       </c>
       <c r="E16">
-        <v>2.440579895591611</v>
+        <v>0.09401422494485345</v>
       </c>
       <c r="F16">
-        <v>3.208470414147598</v>
+        <v>0.7341533156481574</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.1505192871054284</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.07081691344821905</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.086051600950398</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.535194568584501</v>
+        <v>1.56324926804399</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.673260022378543</v>
+        <v>3.66168418453708</v>
       </c>
       <c r="C17">
-        <v>1.575223014919743</v>
+        <v>0.9741269030174067</v>
       </c>
       <c r="D17">
-        <v>0.01939650085017064</v>
+        <v>0.1699055224442816</v>
       </c>
       <c r="E17">
-        <v>2.313249695385935</v>
+        <v>0.09181556497517462</v>
       </c>
       <c r="F17">
-        <v>3.056449288817163</v>
+        <v>0.7172789944818305</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.1532734522917458</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.07002361915139232</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.040839651530625</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.415050076836536</v>
+        <v>1.530916231520308</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.515271909071203</v>
+        <v>3.570932088175425</v>
       </c>
       <c r="C18">
-        <v>1.532186479176687</v>
+        <v>0.9502782685480327</v>
       </c>
       <c r="D18">
-        <v>0.01902586970261311</v>
+        <v>0.166658804063772</v>
       </c>
       <c r="E18">
-        <v>2.241393030178884</v>
+        <v>0.09056694741125781</v>
       </c>
       <c r="F18">
-        <v>2.970656690819794</v>
+        <v>0.7078141534342848</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1549789616412731</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.06958960382346646</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.014887185863564</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.347319657670056</v>
+        <v>1.512971326226534</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.46204301062761</v>
+        <v>3.540224575650313</v>
       </c>
       <c r="C19">
-        <v>1.517688074628722</v>
+        <v>0.9422084987567416</v>
       </c>
       <c r="D19">
-        <v>0.01890643183046947</v>
+        <v>0.1655618881054153</v>
       </c>
       <c r="E19">
-        <v>2.217285257705129</v>
+        <v>0.09014687334980565</v>
       </c>
       <c r="F19">
-        <v>2.941876137489913</v>
+        <v>0.7046498947850779</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.1555768257400416</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.06944639725258739</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.006108672053642</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.324610367615662</v>
+        <v>1.507004795530719</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.702628992191137</v>
+        <v>3.678489965696713</v>
       </c>
       <c r="C20">
-        <v>1.583223952261505</v>
+        <v>0.9785431906782946</v>
       </c>
       <c r="D20">
-        <v>0.01946805831576981</v>
+        <v>0.1705075569987144</v>
       </c>
       <c r="E20">
-        <v>2.326657609536994</v>
+        <v>0.09204794633004099</v>
       </c>
       <c r="F20">
-        <v>3.072458129791755</v>
+        <v>0.7190501341306259</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.1529675982643859</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.07010574284537086</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.045647030033962</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.427694397399378</v>
+        <v>1.534289988954015</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.531804446511501</v>
+        <v>4.144593001041073</v>
       </c>
       <c r="C21">
-        <v>1.80924366986892</v>
+        <v>1.10101886991805</v>
       </c>
       <c r="D21">
-        <v>0.02183325317873397</v>
+        <v>0.1872986198142144</v>
       </c>
       <c r="E21">
-        <v>2.711891204400814</v>
+        <v>0.09863099837278355</v>
       </c>
       <c r="F21">
-        <v>3.532102339964723</v>
+        <v>0.7703857232539377</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.1456848768163717</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.07259325889167201</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.179147671331535</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.791492285420702</v>
+        <v>1.633964062911957</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.092641575630353</v>
+        <v>4.450605766674983</v>
       </c>
       <c r="C22">
-        <v>1.962311598414146</v>
+        <v>1.181421563501715</v>
       </c>
       <c r="D22">
-        <v>0.02381374602036246</v>
+        <v>0.1984143081130583</v>
       </c>
       <c r="E22">
-        <v>2.980103593423465</v>
+        <v>0.1030901267761877</v>
       </c>
       <c r="F22">
-        <v>3.851182331639052</v>
+        <v>0.8063147529977499</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.1421102496180673</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.07443638123067586</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.266965375072843</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.044852691099379</v>
+        <v>1.705556554793105</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.791337683458096</v>
+        <v>4.2871384965743</v>
       </c>
       <c r="C23">
-        <v>1.880054216730684</v>
+        <v>1.13847220295969</v>
       </c>
       <c r="D23">
-        <v>0.02271123507217965</v>
+        <v>0.1924678937664197</v>
       </c>
       <c r="E23">
-        <v>2.835215076688144</v>
+        <v>0.1006951414918724</v>
       </c>
       <c r="F23">
-        <v>3.678952501508405</v>
+        <v>0.7869092905213506</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.1439043877115367</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.07343181282029576</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.220038315706887</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.90801617803767</v>
+        <v>1.666723580537024</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.689346472976979</v>
+        <v>3.670891824877401</v>
       </c>
       <c r="C24">
-        <v>1.579605388707989</v>
+        <v>0.9765465252073113</v>
       </c>
       <c r="D24">
-        <v>0.01943559218916491</v>
+        <v>0.1702353378163934</v>
       </c>
       <c r="E24">
-        <v>2.320591737151943</v>
+        <v>0.09194283883992682</v>
       </c>
       <c r="F24">
-        <v>3.065215570333947</v>
+        <v>0.7182486679881492</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.1531054956704381</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.07006854621712577</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.04347348920512</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.421973753614537</v>
+        <v>1.532762714887156</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.56148808885473</v>
+        <v>3.010665906137149</v>
       </c>
       <c r="C25">
-        <v>1.27244742367202</v>
+        <v>0.8030260319744684</v>
       </c>
       <c r="D25">
-        <v>0.01730229344108025</v>
+        <v>0.1467877384372684</v>
       </c>
       <c r="E25">
-        <v>1.816997756914688</v>
+        <v>0.08310639348974291</v>
       </c>
       <c r="F25">
-        <v>2.464756340942415</v>
+        <v>0.6532784290108395</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1676196363510165</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.06728254875051221</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.8549671837808006</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.949067437102016</v>
+        <v>1.412882158217656</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.526841363068343</v>
+        <v>0.9064210071256866</v>
       </c>
       <c r="C2">
-        <v>0.6758256720019347</v>
+        <v>0.2203067207800586</v>
       </c>
       <c r="D2">
-        <v>0.1299029981800572</v>
+        <v>0.2023424355200092</v>
       </c>
       <c r="E2">
-        <v>0.07704899662277853</v>
+        <v>0.1547909353960861</v>
       </c>
       <c r="F2">
-        <v>0.6121187292590378</v>
+        <v>1.177518146770083</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.1817513165203195</v>
+        <v>0.5231711738452685</v>
       </c>
       <c r="J2">
-        <v>0.0658622806016318</v>
+        <v>0.1596138729011791</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7173252769307936</v>
+        <v>0.3703977477924099</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.342666843157247</v>
+        <v>2.689013073750971</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.199683128156721</v>
+        <v>0.8031573600234765</v>
       </c>
       <c r="C3">
-        <v>0.5897847671705279</v>
+        <v>0.1929127848275414</v>
       </c>
       <c r="D3">
-        <v>0.118661011336286</v>
+        <v>0.2000383646797488</v>
       </c>
       <c r="E3">
-        <v>0.07319162462139062</v>
+        <v>0.1548333156998396</v>
       </c>
       <c r="F3">
-        <v>0.5878721231340407</v>
+        <v>1.183726354629769</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1932491162932468</v>
+        <v>0.5328619925021876</v>
       </c>
       <c r="J3">
-        <v>0.06525120070751456</v>
+        <v>0.1609187147279663</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6245316173048607</v>
+        <v>0.3430046127083344</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.304927839279699</v>
+        <v>2.711440572946941</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.998962435387114</v>
+        <v>0.7396247032718861</v>
       </c>
       <c r="C4">
-        <v>0.5369811744960771</v>
+        <v>0.1760380690235195</v>
       </c>
       <c r="D4">
-        <v>0.1118467349245051</v>
+        <v>0.1986851779472474</v>
       </c>
       <c r="E4">
-        <v>0.07093559723426068</v>
+        <v>0.1549289865395949</v>
       </c>
       <c r="F4">
-        <v>0.5746258523045569</v>
+        <v>1.188358400747731</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.2011861315371579</v>
+        <v>0.5392324207284123</v>
       </c>
       <c r="J4">
-        <v>0.06503645709365102</v>
+        <v>0.1618099164968676</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5677272419193145</v>
+        <v>0.326233312942243</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.286181155012002</v>
+        <v>2.727302318494168</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.917179163693447</v>
+        <v>0.7137039781729584</v>
       </c>
       <c r="C5">
-        <v>0.5154625582548249</v>
+        <v>0.1691481309999858</v>
       </c>
       <c r="D5">
-        <v>0.1090906239096725</v>
+        <v>0.1981492872878903</v>
       </c>
       <c r="E5">
-        <v>0.07004315682087991</v>
+        <v>0.154985507000454</v>
       </c>
       <c r="F5">
-        <v>0.5696185099195787</v>
+        <v>1.190452051768879</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.2046312423271068</v>
+        <v>0.5419339037214872</v>
       </c>
       <c r="J5">
-        <v>0.06498749020094863</v>
+        <v>0.1621957163346224</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5446128680562907</v>
+        <v>0.3194114119666978</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.279594041842898</v>
+        <v>2.734291136818598</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.903599083184389</v>
+        <v>0.7093980583691462</v>
       </c>
       <c r="C6">
-        <v>0.5118891629948905</v>
+        <v>0.1680032675426162</v>
       </c>
       <c r="D6">
-        <v>0.1086341868162037</v>
+        <v>0.1980612440413552</v>
       </c>
       <c r="E6">
-        <v>0.06989655460449029</v>
+        <v>0.1549959517686013</v>
       </c>
       <c r="F6">
-        <v>0.5688100125251552</v>
+        <v>1.190812140644795</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2052157466929909</v>
+        <v>0.5423888482487342</v>
       </c>
       <c r="J6">
-        <v>0.06498163608046781</v>
+        <v>0.16226114450129</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5407765316319129</v>
+        <v>0.3182794103298221</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.278562104763651</v>
+        <v>2.735483311316642</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.99785946336101</v>
+        <v>0.7392752492501131</v>
       </c>
       <c r="C7">
-        <v>0.5366909790345744</v>
+        <v>0.1759452024387542</v>
       </c>
       <c r="D7">
-        <v>0.1118094828446416</v>
+        <v>0.1986778877022459</v>
       </c>
       <c r="E7">
-        <v>0.07092345426181268</v>
+        <v>0.1549296777738753</v>
       </c>
       <c r="F7">
-        <v>0.5745567682955084</v>
+        <v>1.188385802400127</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.2012317530610943</v>
+        <v>0.5392684270313275</v>
       </c>
       <c r="J7">
-        <v>0.06503564297126019</v>
+        <v>0.1618150279209978</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5674153879948065</v>
+        <v>0.326141259066361</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.286088135760366</v>
+        <v>2.72739444740931</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.413987867218623</v>
+        <v>0.8708432822335794</v>
       </c>
       <c r="C8">
-        <v>0.6461488660570467</v>
+        <v>0.2108728857943731</v>
       </c>
       <c r="D8">
-        <v>0.1260075197565271</v>
+        <v>0.2015352660582295</v>
       </c>
       <c r="E8">
-        <v>0.07569480245925675</v>
+        <v>0.1547911040532739</v>
       </c>
       <c r="F8">
-        <v>0.6034042078377198</v>
+        <v>1.179488394169475</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1855275629558708</v>
+        <v>0.526425238430333</v>
       </c>
       <c r="J8">
-        <v>0.06561716001149165</v>
+        <v>0.1600450923155208</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6852887174157232</v>
+        <v>0.3609428344195109</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.328698618159109</v>
+        <v>2.696311561930059</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.232608343245204</v>
+        <v>1.127770804551631</v>
       </c>
       <c r="C9">
-        <v>0.8613629193832537</v>
+        <v>0.2789171793599792</v>
       </c>
       <c r="D9">
-        <v>0.1546220882530491</v>
+        <v>0.2076239239023749</v>
       </c>
       <c r="E9">
-        <v>0.08600872819420502</v>
+        <v>0.1550712818679507</v>
       </c>
       <c r="F9">
-        <v>0.6740538423042111</v>
+        <v>1.168557834434189</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1621633918434071</v>
+        <v>0.50458221266123</v>
       </c>
       <c r="J9">
-        <v>0.06811707222353647</v>
+        <v>0.1572890219107883</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9182536404635115</v>
+        <v>0.4295561425677903</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.450261429483191</v>
+        <v>2.65198883944575</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.837723176344753</v>
+        <v>1.315819253882864</v>
       </c>
       <c r="C10">
-        <v>1.020385914480897</v>
+        <v>0.3286211394539293</v>
       </c>
       <c r="D10">
-        <v>0.1762238024295186</v>
+        <v>0.2123900162211214</v>
       </c>
       <c r="E10">
-        <v>0.09426732143530359</v>
+        <v>0.1556128750754446</v>
       </c>
       <c r="F10">
-        <v>0.7361121913202169</v>
+        <v>1.164514829431809</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.1502218073713628</v>
+        <v>0.4905825250120373</v>
       </c>
       <c r="J10">
-        <v>0.07091051366460732</v>
+        <v>0.1557006066864268</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.09121801261503</v>
+        <v>0.4801756734451672</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.56702917077061</v>
+        <v>2.629618584400873</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.114314281640873</v>
+        <v>1.401200570918547</v>
       </c>
       <c r="C11">
-        <v>1.093063107682894</v>
+        <v>0.3511674419926862</v>
       </c>
       <c r="D11">
-        <v>0.1862025736326558</v>
+        <v>0.214621186423031</v>
       </c>
       <c r="E11">
-        <v>0.09819552335834558</v>
+        <v>0.1559320291363591</v>
       </c>
       <c r="F11">
-        <v>0.7669244306333809</v>
+        <v>1.163544680145549</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.14608940718567</v>
+        <v>0.4846607805398371</v>
       </c>
       <c r="J11">
-        <v>0.07241971132121705</v>
+        <v>0.1550729348998345</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.170465611587304</v>
+        <v>0.5032465122211534</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.627139834946519</v>
+        <v>2.621667208066299</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.219287396085861</v>
+        <v>1.433507491900514</v>
       </c>
       <c r="C12">
-        <v>1.120644686209232</v>
+        <v>0.359695562624438</v>
       </c>
       <c r="D12">
-        <v>0.190005436610079</v>
+        <v>0.2154750747442336</v>
       </c>
       <c r="E12">
-        <v>0.09970975184902642</v>
+        <v>0.1560633346873175</v>
       </c>
       <c r="F12">
-        <v>0.7789973581484162</v>
+        <v>1.163302512095299</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1447265253687462</v>
+        <v>0.4824828185386529</v>
       </c>
       <c r="J12">
-        <v>0.07302826065010493</v>
+        <v>0.1548489124216559</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.200570961939235</v>
+        <v>0.51198878835865</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.651000673029358</v>
+        <v>2.618977114009141</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.196668406070046</v>
+        <v>1.426550763198634</v>
       </c>
       <c r="C13">
-        <v>1.114701617741616</v>
+        <v>0.3578593163812229</v>
       </c>
       <c r="D13">
-        <v>0.1891853115477886</v>
+        <v>0.2152907758438118</v>
       </c>
       <c r="E13">
-        <v>0.09938241341069087</v>
+        <v>0.1560345912419407</v>
       </c>
       <c r="F13">
-        <v>0.7763786588654966</v>
+        <v>1.163349094915262</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1450108118934956</v>
+        <v>0.4829490105075216</v>
       </c>
       <c r="J13">
-        <v>0.07289550467118744</v>
+        <v>0.1548965517444074</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.194082718705488</v>
+        <v>0.5101057295947697</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.645811416067602</v>
+        <v>2.619542185470465</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.12294552628714</v>
+        <v>1.403858994154746</v>
       </c>
       <c r="C14">
-        <v>1.095330980532196</v>
+        <v>0.351869251966491</v>
       </c>
       <c r="D14">
-        <v>0.1865149405398228</v>
+        <v>0.2146912565268622</v>
       </c>
       <c r="E14">
-        <v>0.09831955227037881</v>
+        <v>0.1559426224094835</v>
       </c>
       <c r="F14">
-        <v>0.7679093580609901</v>
+        <v>1.163522246139109</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1459731440676144</v>
+        <v>0.4844803048381969</v>
       </c>
       <c r="J14">
-        <v>0.07246901795702598</v>
+        <v>0.1550542305142528</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.172940384114682</v>
+        <v>0.5039656298167046</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.629080313230816</v>
+        <v>2.621439455147652</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.077819986929853</v>
+        <v>1.389956307120826</v>
       </c>
       <c r="C15">
-        <v>1.083474128909018</v>
+        <v>0.3481988918565548</v>
       </c>
       <c r="D15">
-        <v>0.1848824720881623</v>
+        <v>0.2143252025432361</v>
       </c>
       <c r="E15">
-        <v>0.0976720607401802</v>
+        <v>0.1558876490892693</v>
       </c>
       <c r="F15">
-        <v>0.7627754566600657</v>
+        <v>1.163644618946648</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1465893685921422</v>
+        <v>0.4854266699988798</v>
       </c>
       <c r="J15">
-        <v>0.07221269293184918</v>
+        <v>0.1551525931352735</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.1600030540978</v>
+        <v>0.5002053902025665</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.618977927548656</v>
+        <v>2.622643409599306</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.819677568585121</v>
+        <v>1.310235960142506</v>
       </c>
       <c r="C16">
-        <v>1.015644058127435</v>
+        <v>0.3271463551296279</v>
       </c>
       <c r="D16">
-        <v>0.17557491463144</v>
+        <v>0.2122454664075093</v>
       </c>
       <c r="E16">
-        <v>0.09401422494485345</v>
+        <v>0.1555934806909249</v>
       </c>
       <c r="F16">
-        <v>0.7341533156481574</v>
+        <v>1.16459573873756</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1505192871054284</v>
+        <v>0.4909785347968203</v>
       </c>
       <c r="J16">
-        <v>0.07081691344821905</v>
+        <v>0.1557435376216567</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.086051600950398</v>
+        <v>0.4786687825430889</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.56324926804399</v>
+        <v>2.630183080738959</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.66168418453708</v>
+        <v>1.261287173421636</v>
       </c>
       <c r="C17">
-        <v>0.9741269030174067</v>
+        <v>0.314214534186533</v>
       </c>
       <c r="D17">
-        <v>0.1699055224442816</v>
+        <v>0.2109857116947325</v>
       </c>
       <c r="E17">
-        <v>0.09181556497517462</v>
+        <v>0.1554316467073846</v>
       </c>
       <c r="F17">
-        <v>0.7172789944818305</v>
+        <v>1.16540197188182</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1532734522917458</v>
+        <v>0.4944990177939559</v>
       </c>
       <c r="J17">
-        <v>0.07002361915139232</v>
+        <v>0.1561303819388478</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.040839651530625</v>
+        <v>0.4654676635006325</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.530916231520308</v>
+        <v>2.63537898482133</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.570932088175425</v>
+        <v>1.23311789754564</v>
       </c>
       <c r="C18">
-        <v>0.9502782685480327</v>
+        <v>0.306770468213756</v>
       </c>
       <c r="D18">
-        <v>0.166658804063772</v>
+        <v>0.2102670731584624</v>
       </c>
       <c r="E18">
-        <v>0.09056694741125781</v>
+        <v>0.1553454155445024</v>
       </c>
       <c r="F18">
-        <v>0.7078141534342848</v>
+        <v>1.165947479166562</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1549789616412731</v>
+        <v>0.496565946332737</v>
       </c>
       <c r="J18">
-        <v>0.06958960382346646</v>
+        <v>0.1563618166417378</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.014887185863564</v>
+        <v>0.4578788741521649</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.512971326226534</v>
+        <v>2.638576897762817</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.540224575650313</v>
+        <v>1.223577701637282</v>
       </c>
       <c r="C19">
-        <v>0.9422084987567416</v>
+        <v>0.304249013864279</v>
       </c>
       <c r="D19">
-        <v>0.1655618881054153</v>
+        <v>0.2100247767982921</v>
       </c>
       <c r="E19">
-        <v>0.09014687334980565</v>
+        <v>0.1553173964162937</v>
       </c>
       <c r="F19">
-        <v>0.7046498947850779</v>
+        <v>1.166146217576355</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1555768257400416</v>
+        <v>0.4972729862771175</v>
       </c>
       <c r="J19">
-        <v>0.06944639725258739</v>
+        <v>0.1564417100678916</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.006108672053642</v>
+        <v>0.4553101659446952</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.507004795530719</v>
+        <v>2.639695585323125</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.678489965696713</v>
+        <v>1.266499443855139</v>
       </c>
       <c r="C20">
-        <v>0.9785431906782946</v>
+        <v>0.3155917752665118</v>
       </c>
       <c r="D20">
-        <v>0.1705075569987144</v>
+        <v>0.2111192006019138</v>
       </c>
       <c r="E20">
-        <v>0.09204794633004099</v>
+        <v>0.1554481652332846</v>
       </c>
       <c r="F20">
-        <v>0.7190501341306259</v>
+        <v>1.16530768097428</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1529675982643859</v>
+        <v>0.4941199037559514</v>
       </c>
       <c r="J20">
-        <v>0.07010574284537086</v>
+        <v>0.1560882771492089</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.045647030033962</v>
+        <v>0.4668725193656798</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.534289988954015</v>
+        <v>2.634804196268362</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.144593001041073</v>
+        <v>1.410524812380743</v>
       </c>
       <c r="C21">
-        <v>1.10101886991805</v>
+        <v>0.353628945080402</v>
       </c>
       <c r="D21">
-        <v>0.1872986198142144</v>
+        <v>0.214867106415511</v>
       </c>
       <c r="E21">
-        <v>0.09863099837278355</v>
+        <v>0.1559693524412857</v>
       </c>
       <c r="F21">
-        <v>0.7703857232539377</v>
+        <v>1.163467987452037</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.1456848768163717</v>
+        <v>0.4840287749566734</v>
       </c>
       <c r="J21">
-        <v>0.07259325889167201</v>
+        <v>0.1550075454961153</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.179147671331535</v>
+        <v>0.5057689706973605</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.633964062911957</v>
+        <v>2.620873463658285</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.450605766674983</v>
+        <v>1.504506451993564</v>
       </c>
       <c r="C22">
-        <v>1.181421563501715</v>
+        <v>0.3784318444796781</v>
       </c>
       <c r="D22">
-        <v>0.1984143081130583</v>
+        <v>0.2173689610883542</v>
       </c>
       <c r="E22">
-        <v>0.1030901267761877</v>
+        <v>0.1563708743886245</v>
       </c>
       <c r="F22">
-        <v>0.8063147529977499</v>
+        <v>1.162995550838502</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1421102496180673</v>
+        <v>0.4778095485603338</v>
       </c>
       <c r="J22">
-        <v>0.07443638123067586</v>
+        <v>0.1543808718294173</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.266965375072843</v>
+        <v>0.5312239465486641</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.705556554793105</v>
+        <v>2.613639937952513</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.2871384965743</v>
+        <v>1.454360718269356</v>
       </c>
       <c r="C23">
-        <v>1.13847220295969</v>
+        <v>0.3651993899204058</v>
       </c>
       <c r="D23">
-        <v>0.1924678937664197</v>
+        <v>0.2160289056247677</v>
       </c>
       <c r="E23">
-        <v>0.1006951414918724</v>
+        <v>0.1561510081649224</v>
       </c>
       <c r="F23">
-        <v>0.7869092905213506</v>
+        <v>1.163180833325896</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1439043877115367</v>
+        <v>0.4810943960192304</v>
       </c>
       <c r="J23">
-        <v>0.07343181282029576</v>
+        <v>0.1547080464401489</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.220038315706887</v>
+        <v>0.5176351907092709</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.666723580537024</v>
+        <v>2.617329088694362</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.670891824877401</v>
+        <v>1.264143063377162</v>
       </c>
       <c r="C24">
-        <v>0.9765465252073113</v>
+        <v>0.3149691537925321</v>
       </c>
       <c r="D24">
-        <v>0.1702353378163934</v>
+        <v>0.2110588327841185</v>
       </c>
       <c r="E24">
-        <v>0.09194283883992682</v>
+        <v>0.155440675996207</v>
       </c>
       <c r="F24">
-        <v>0.7182486679881492</v>
+        <v>1.165350054506504</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1531054956704381</v>
+        <v>0.4942911674227979</v>
       </c>
       <c r="J24">
-        <v>0.07006854621712577</v>
+        <v>0.1561072845895737</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.04347348920512</v>
+        <v>0.4662373817858594</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.532762714887156</v>
+        <v>2.635063401864386</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.010665906137149</v>
+        <v>1.058386627011942</v>
       </c>
       <c r="C25">
-        <v>0.8030260319744684</v>
+        <v>0.2605589639083803</v>
       </c>
       <c r="D25">
-        <v>0.1467877384372684</v>
+        <v>0.205925145336991</v>
       </c>
       <c r="E25">
-        <v>0.08310639348974291</v>
+        <v>0.1549364739725405</v>
       </c>
       <c r="F25">
-        <v>0.6532784290108395</v>
+        <v>1.170815612382199</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1676196363510165</v>
+        <v>0.5101323877939947</v>
       </c>
       <c r="J25">
-        <v>0.06728254875051221</v>
+        <v>0.1579580159245637</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8549671837808006</v>
+        <v>0.410956613367901</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.412882158217656</v>
+        <v>2.662193166503272</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9064210071256866</v>
+        <v>2.526841363068399</v>
       </c>
       <c r="C2">
-        <v>0.2203067207800586</v>
+        <v>0.6758256720021336</v>
       </c>
       <c r="D2">
-        <v>0.2023424355200092</v>
+        <v>0.1299029981798867</v>
       </c>
       <c r="E2">
-        <v>0.1547909353960861</v>
+        <v>0.0770489966228034</v>
       </c>
       <c r="F2">
-        <v>1.177518146770083</v>
+        <v>0.6121187292590378</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,10 +442,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5231711738452685</v>
+        <v>0.1817513165203195</v>
       </c>
       <c r="J2">
-        <v>0.1596138729011791</v>
+        <v>0.06586228060159982</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3703977477924099</v>
+        <v>0.7173252769307865</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.689013073750971</v>
+        <v>1.342666843157275</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8031573600234765</v>
+        <v>2.199683128156721</v>
       </c>
       <c r="C3">
-        <v>0.1929127848275414</v>
+        <v>0.58978476717067</v>
       </c>
       <c r="D3">
-        <v>0.2000383646797488</v>
+        <v>0.1186610113362789</v>
       </c>
       <c r="E3">
-        <v>0.1548333156998396</v>
+        <v>0.07319162462141904</v>
       </c>
       <c r="F3">
-        <v>1.183726354629769</v>
+        <v>0.5878721231340549</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.5328619925021876</v>
+        <v>0.1932491162932433</v>
       </c>
       <c r="J3">
-        <v>0.1609187147279663</v>
+        <v>0.0652512007076389</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3430046127083344</v>
+        <v>0.6245316173048536</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.711440572946941</v>
+        <v>1.304927839279742</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7396247032718861</v>
+        <v>1.99896243538717</v>
       </c>
       <c r="C4">
-        <v>0.1760380690235195</v>
+        <v>0.5369811744959918</v>
       </c>
       <c r="D4">
-        <v>0.1986851779472474</v>
+        <v>0.1118467349245051</v>
       </c>
       <c r="E4">
-        <v>0.1549289865395949</v>
+        <v>0.07093559723428555</v>
       </c>
       <c r="F4">
-        <v>1.188358400747731</v>
+        <v>0.5746258523045711</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5392324207284123</v>
+        <v>0.2011861315371739</v>
       </c>
       <c r="J4">
-        <v>0.1618099164968676</v>
+        <v>0.06503645709371142</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.326233312942243</v>
+        <v>0.5677272419193358</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.727302318494168</v>
+        <v>1.286181155012002</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7137039781729584</v>
+        <v>1.917179163693447</v>
       </c>
       <c r="C5">
-        <v>0.1691481309999858</v>
+        <v>0.5154625582542849</v>
       </c>
       <c r="D5">
-        <v>0.1981492872878903</v>
+        <v>0.1090906239099141</v>
       </c>
       <c r="E5">
-        <v>0.154985507000454</v>
+        <v>0.07004315682087281</v>
       </c>
       <c r="F5">
-        <v>1.190452051768879</v>
+        <v>0.5696185099196001</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,10 +583,10 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.5419339037214872</v>
+        <v>0.2046312423271033</v>
       </c>
       <c r="J5">
-        <v>0.1621957163346224</v>
+        <v>0.0649874902007781</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3194114119666978</v>
+        <v>0.5446128680562765</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.734291136818598</v>
+        <v>1.279594041842842</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7093980583691462</v>
+        <v>1.903599083184105</v>
       </c>
       <c r="C6">
-        <v>0.1680032675426162</v>
+        <v>0.5118891629948621</v>
       </c>
       <c r="D6">
-        <v>0.1980612440413552</v>
+        <v>0.1086341868161327</v>
       </c>
       <c r="E6">
-        <v>0.1549959517686013</v>
+        <v>0.06989655460446897</v>
       </c>
       <c r="F6">
-        <v>1.190812140644795</v>
+        <v>0.568810012525141</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,10 +630,10 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.5423888482487342</v>
+        <v>0.2052157466929927</v>
       </c>
       <c r="J6">
-        <v>0.16226114450129</v>
+        <v>0.06498163608060636</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3182794103298221</v>
+        <v>0.5407765316319129</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.735483311316642</v>
+        <v>1.278562104763694</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7392752492501131</v>
+        <v>1.997859463360953</v>
       </c>
       <c r="C7">
-        <v>0.1759452024387542</v>
+        <v>0.5366909790346028</v>
       </c>
       <c r="D7">
-        <v>0.1986778877022459</v>
+        <v>0.1118094828447127</v>
       </c>
       <c r="E7">
-        <v>0.1549296777738753</v>
+        <v>0.07092345426179847</v>
       </c>
       <c r="F7">
-        <v>1.188385802400127</v>
+        <v>0.5745567682955155</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.5392684270313275</v>
+        <v>0.2012317530610908</v>
       </c>
       <c r="J7">
-        <v>0.1618150279209978</v>
+        <v>0.06503564297128506</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.326141259066361</v>
+        <v>0.5674153879948136</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.72739444740931</v>
+        <v>1.286088135760451</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8708432822335794</v>
+        <v>2.413987867218623</v>
       </c>
       <c r="C8">
-        <v>0.2108728857943731</v>
+        <v>0.6461488660570467</v>
       </c>
       <c r="D8">
-        <v>0.2015352660582295</v>
+        <v>0.1260075197565982</v>
       </c>
       <c r="E8">
-        <v>0.1547911040532739</v>
+        <v>0.07569480245924254</v>
       </c>
       <c r="F8">
-        <v>1.179488394169475</v>
+        <v>0.6034042078377411</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.526425238430333</v>
+        <v>0.1855275629558939</v>
       </c>
       <c r="J8">
-        <v>0.1600450923155208</v>
+        <v>0.06561716001143481</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3609428344195109</v>
+        <v>0.6852887174157019</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.696311561930059</v>
+        <v>1.328698618159308</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.127770804551631</v>
+        <v>3.232608343245261</v>
       </c>
       <c r="C9">
-        <v>0.2789171793599792</v>
+        <v>0.8613629193832821</v>
       </c>
       <c r="D9">
-        <v>0.2076239239023749</v>
+        <v>0.1546220882530349</v>
       </c>
       <c r="E9">
-        <v>0.1550712818679507</v>
+        <v>0.08600872819421923</v>
       </c>
       <c r="F9">
-        <v>1.168557834434189</v>
+        <v>0.6740538423042253</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.50458221266123</v>
+        <v>0.1621633918434178</v>
       </c>
       <c r="J9">
-        <v>0.1572890219107883</v>
+        <v>0.0681170722235187</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4295561425677903</v>
+        <v>0.9182536404635186</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.65198883944575</v>
+        <v>1.450261429483248</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.315819253882864</v>
+        <v>3.837723176344525</v>
       </c>
       <c r="C10">
-        <v>0.3286211394539293</v>
+        <v>1.020385914480926</v>
       </c>
       <c r="D10">
-        <v>0.2123900162211214</v>
+        <v>0.1762238024297034</v>
       </c>
       <c r="E10">
-        <v>0.1556128750754446</v>
+        <v>0.09426732143528227</v>
       </c>
       <c r="F10">
-        <v>1.164514829431809</v>
+        <v>0.7361121913202169</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4905825250120373</v>
+        <v>0.1502218073713522</v>
       </c>
       <c r="J10">
-        <v>0.1557006066864268</v>
+        <v>0.07091051366458245</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4801756734451672</v>
+        <v>1.091218012615016</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.629618584400873</v>
+        <v>1.567029170770525</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.401200570918547</v>
+        <v>4.114314281640986</v>
       </c>
       <c r="C11">
-        <v>0.3511674419926862</v>
+        <v>1.093063107682951</v>
       </c>
       <c r="D11">
-        <v>0.214621186423031</v>
+        <v>0.1862025736328974</v>
       </c>
       <c r="E11">
-        <v>0.1559320291363591</v>
+        <v>0.09819552335831716</v>
       </c>
       <c r="F11">
-        <v>1.163544680145549</v>
+        <v>0.7669244306333667</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4846607805398371</v>
+        <v>0.1460894071856593</v>
       </c>
       <c r="J11">
-        <v>0.1550729348998345</v>
+        <v>0.07241971132118152</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5032465122211534</v>
+        <v>1.170465611587304</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.621667208066299</v>
+        <v>1.627139834946433</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.433507491900514</v>
+        <v>4.219287396085804</v>
       </c>
       <c r="C12">
-        <v>0.359695562624438</v>
+        <v>1.120644686209118</v>
       </c>
       <c r="D12">
-        <v>0.2154750747442336</v>
+        <v>0.1900054366101784</v>
       </c>
       <c r="E12">
-        <v>0.1560633346873175</v>
+        <v>0.09970975184898379</v>
       </c>
       <c r="F12">
-        <v>1.163302512095299</v>
+        <v>0.778997358148402</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4824828185386529</v>
+        <v>0.1447265253687604</v>
       </c>
       <c r="J12">
-        <v>0.1548489124216559</v>
+        <v>0.07302826065016177</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.51198878835865</v>
+        <v>1.200570961939235</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.618977114009141</v>
+        <v>1.651000673029387</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.426550763198634</v>
+        <v>4.196668406069762</v>
       </c>
       <c r="C13">
-        <v>0.3578593163812229</v>
+        <v>1.114701617741616</v>
       </c>
       <c r="D13">
-        <v>0.2152907758438118</v>
+        <v>0.1891853115476323</v>
       </c>
       <c r="E13">
-        <v>0.1560345912419407</v>
+        <v>0.09938241341069798</v>
       </c>
       <c r="F13">
-        <v>1.163349094915262</v>
+        <v>0.7763786588654966</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4829490105075216</v>
+        <v>0.1450108118934921</v>
       </c>
       <c r="J13">
-        <v>0.1548965517444074</v>
+        <v>0.07289550467130113</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5101057295947697</v>
+        <v>1.194082718705502</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.619542185470465</v>
+        <v>1.645811416067517</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.403858994154746</v>
+        <v>4.12294552628714</v>
       </c>
       <c r="C14">
-        <v>0.351869251966491</v>
+        <v>1.095330980532765</v>
       </c>
       <c r="D14">
-        <v>0.2146912565268622</v>
+        <v>0.1865149405398654</v>
       </c>
       <c r="E14">
-        <v>0.1559426224094835</v>
+        <v>0.09831955227038947</v>
       </c>
       <c r="F14">
-        <v>1.163522246139109</v>
+        <v>0.7679093580610186</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4844803048381969</v>
+        <v>0.1459731440676144</v>
       </c>
       <c r="J14">
-        <v>0.1550542305142528</v>
+        <v>0.0724690179570544</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5039656298167046</v>
+        <v>1.172940384114654</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.621439455147652</v>
+        <v>1.62908031323073</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.389956307120826</v>
+        <v>4.077819986930024</v>
       </c>
       <c r="C15">
-        <v>0.3481988918565548</v>
+        <v>1.083474128909245</v>
       </c>
       <c r="D15">
-        <v>0.2143252025432361</v>
+        <v>0.184882472088276</v>
       </c>
       <c r="E15">
-        <v>0.1558876490892693</v>
+        <v>0.09767206074019441</v>
       </c>
       <c r="F15">
-        <v>1.163644618946648</v>
+        <v>0.76277545666008</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4854266699988798</v>
+        <v>0.1465893685921458</v>
       </c>
       <c r="J15">
-        <v>0.1551525931352735</v>
+        <v>0.07221269293179944</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5002053902025665</v>
+        <v>1.160003054097828</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.622643409599306</v>
+        <v>1.618977927548627</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.310235960142506</v>
+        <v>3.819677568585405</v>
       </c>
       <c r="C16">
-        <v>0.3271463551296279</v>
+        <v>1.015644058127037</v>
       </c>
       <c r="D16">
-        <v>0.2122454664075093</v>
+        <v>0.17557491463171</v>
       </c>
       <c r="E16">
-        <v>0.1555934806909249</v>
+        <v>0.09401422494486766</v>
       </c>
       <c r="F16">
-        <v>1.16459573873756</v>
+        <v>0.7341533156481432</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,10 +1100,10 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4909785347968203</v>
+        <v>0.1505192871054426</v>
       </c>
       <c r="J16">
-        <v>0.1557435376216567</v>
+        <v>0.07081691344814089</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4786687825430889</v>
+        <v>1.086051600950412</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.630183080738959</v>
+        <v>1.563249268044075</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.261287173421636</v>
+        <v>3.661684184537023</v>
       </c>
       <c r="C17">
-        <v>0.314214534186533</v>
+        <v>0.9741269030168951</v>
       </c>
       <c r="D17">
-        <v>0.2109857116947325</v>
+        <v>0.1699055224442958</v>
       </c>
       <c r="E17">
-        <v>0.1554316467073846</v>
+        <v>0.09181556497517462</v>
       </c>
       <c r="F17">
-        <v>1.16540197188182</v>
+        <v>0.7172789944818163</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4944990177939559</v>
+        <v>0.1532734522917458</v>
       </c>
       <c r="J17">
-        <v>0.1561303819388478</v>
+        <v>0.07002361915141364</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4654676635006325</v>
+        <v>1.040839651530632</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.63537898482133</v>
+        <v>1.530916231520308</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.23311789754564</v>
+        <v>3.570932088175311</v>
       </c>
       <c r="C18">
-        <v>0.306770468213756</v>
+        <v>0.9502782685479474</v>
       </c>
       <c r="D18">
-        <v>0.2102670731584624</v>
+        <v>0.1666588040634878</v>
       </c>
       <c r="E18">
-        <v>0.1553454155445024</v>
+        <v>0.09056694741128268</v>
       </c>
       <c r="F18">
-        <v>1.165947479166562</v>
+        <v>0.7078141534342848</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,10 +1194,10 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.496565946332737</v>
+        <v>0.1549789616412696</v>
       </c>
       <c r="J18">
-        <v>0.1563618166417378</v>
+        <v>0.0695896038235837</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4578788741521649</v>
+        <v>1.014887185863557</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.638576897762817</v>
+        <v>1.512971326226506</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.223577701637282</v>
+        <v>3.54022457565037</v>
       </c>
       <c r="C19">
-        <v>0.304249013864279</v>
+        <v>0.9422084987567132</v>
       </c>
       <c r="D19">
-        <v>0.2100247767982921</v>
+        <v>0.165561888105529</v>
       </c>
       <c r="E19">
-        <v>0.1553173964162937</v>
+        <v>0.09014687334981986</v>
       </c>
       <c r="F19">
-        <v>1.166146217576355</v>
+        <v>0.704649894785085</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4972729862771175</v>
+        <v>0.1555768257400487</v>
       </c>
       <c r="J19">
-        <v>0.1564417100678916</v>
+        <v>0.06944639725242396</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4553101659446952</v>
+        <v>1.006108672053621</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.639695585323125</v>
+        <v>1.507004795530719</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.266499443855139</v>
+        <v>3.678489965696656</v>
       </c>
       <c r="C20">
-        <v>0.3155917752665118</v>
+        <v>0.9785431906782094</v>
       </c>
       <c r="D20">
-        <v>0.2111192006019138</v>
+        <v>0.1705075569987144</v>
       </c>
       <c r="E20">
-        <v>0.1554481652332846</v>
+        <v>0.09204794633005164</v>
       </c>
       <c r="F20">
-        <v>1.16530768097428</v>
+        <v>0.7190501341306259</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4941199037559514</v>
+        <v>0.1529675982643752</v>
       </c>
       <c r="J20">
-        <v>0.1560882771492089</v>
+        <v>0.07010574284545967</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4668725193656798</v>
+        <v>1.045647030033948</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.634804196268362</v>
+        <v>1.534289988954072</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.410524812380743</v>
+        <v>4.14459300104113</v>
       </c>
       <c r="C21">
-        <v>0.353628945080402</v>
+        <v>1.101018869917823</v>
       </c>
       <c r="D21">
-        <v>0.214867106415511</v>
+        <v>0.1872986198141575</v>
       </c>
       <c r="E21">
-        <v>0.1559693524412857</v>
+        <v>0.09863099837278</v>
       </c>
       <c r="F21">
-        <v>1.163467987452037</v>
+        <v>0.7703857232539519</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4840287749566734</v>
+        <v>0.1456848768163681</v>
       </c>
       <c r="J21">
-        <v>0.1550075454961153</v>
+        <v>0.07259325889170043</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5057689706973605</v>
+        <v>1.179147671331535</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.620873463658285</v>
+        <v>1.633964062911986</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.504506451993564</v>
+        <v>4.450605766675096</v>
       </c>
       <c r="C22">
-        <v>0.3784318444796781</v>
+        <v>1.181421563501885</v>
       </c>
       <c r="D22">
-        <v>0.2173689610883542</v>
+        <v>0.1984143081131862</v>
       </c>
       <c r="E22">
-        <v>0.1563708743886245</v>
+        <v>0.1030901267761912</v>
       </c>
       <c r="F22">
-        <v>1.162995550838502</v>
+        <v>0.8063147529977499</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4778095485603338</v>
+        <v>0.1421102496180673</v>
       </c>
       <c r="J22">
-        <v>0.1543808718294173</v>
+        <v>0.07443638123064744</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5312239465486641</v>
+        <v>1.266965375072843</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.613639937952513</v>
+        <v>1.70555655479302</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.454360718269356</v>
+        <v>4.287138496574357</v>
       </c>
       <c r="C23">
-        <v>0.3651993899204058</v>
+        <v>1.138472202959292</v>
       </c>
       <c r="D23">
-        <v>0.2160289056247677</v>
+        <v>0.1924678937664055</v>
       </c>
       <c r="E23">
-        <v>0.1561510081649224</v>
+        <v>0.1006951414918973</v>
       </c>
       <c r="F23">
-        <v>1.163180833325896</v>
+        <v>0.7869092905213506</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4810943960192304</v>
+        <v>0.1439043877115509</v>
       </c>
       <c r="J23">
-        <v>0.1547080464401489</v>
+        <v>0.07343181282018207</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5176351907092709</v>
+        <v>1.220038315706887</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.617329088694362</v>
+        <v>1.666723580537052</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.264143063377162</v>
+        <v>3.670891824877685</v>
       </c>
       <c r="C24">
-        <v>0.3149691537925321</v>
+        <v>0.9765465252073398</v>
       </c>
       <c r="D24">
-        <v>0.2110588327841185</v>
+        <v>0.1702353378163082</v>
       </c>
       <c r="E24">
-        <v>0.155440675996207</v>
+        <v>0.09194283883994103</v>
       </c>
       <c r="F24">
-        <v>1.165350054506504</v>
+        <v>0.7182486679881634</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,10 +1476,10 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4942911674227979</v>
+        <v>0.1531054956704381</v>
       </c>
       <c r="J24">
-        <v>0.1561072845895737</v>
+        <v>0.07006854621718261</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4662373817858594</v>
+        <v>1.043473489205091</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.635063401864386</v>
+        <v>1.532762714887184</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.058386627011942</v>
+        <v>3.010665906137319</v>
       </c>
       <c r="C25">
-        <v>0.2605589639083803</v>
+        <v>0.8030260319747242</v>
       </c>
       <c r="D25">
-        <v>0.205925145336991</v>
+        <v>0.1467877384371121</v>
       </c>
       <c r="E25">
-        <v>0.1549364739725405</v>
+        <v>0.08310639348973936</v>
       </c>
       <c r="F25">
-        <v>1.170815612382199</v>
+        <v>0.6532784290108182</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5101323877939947</v>
+        <v>0.1676196363510272</v>
       </c>
       <c r="J25">
-        <v>0.1579580159245637</v>
+        <v>0.06728254875052286</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.410956613367901</v>
+        <v>0.8549671837807864</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.662193166503272</v>
+        <v>1.412882158217627</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.526841363068399</v>
+        <v>3.488461907651413</v>
       </c>
       <c r="C2">
-        <v>0.6758256720021336</v>
+        <v>1.112193896598342</v>
       </c>
       <c r="D2">
-        <v>0.1299029981798867</v>
+        <v>0.05149459367446951</v>
       </c>
       <c r="E2">
-        <v>0.0770489966228034</v>
+        <v>1.363956242909452</v>
       </c>
       <c r="F2">
-        <v>0.6121187292590378</v>
+        <v>0.4506029711507011</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01227702209079279</v>
       </c>
       <c r="I2">
-        <v>0.1817513165203195</v>
+        <v>0.005851956265372937</v>
       </c>
       <c r="J2">
-        <v>0.06586228060159982</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.1467002555275538</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7173252769307865</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.342666843157275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.229765314890614</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.199683128156721</v>
+        <v>3.041476812874294</v>
       </c>
       <c r="C3">
-        <v>0.58978476717067</v>
+        <v>0.9774745145306554</v>
       </c>
       <c r="D3">
-        <v>0.1186610113362789</v>
+        <v>0.04586251013221698</v>
       </c>
       <c r="E3">
-        <v>0.07319162462141904</v>
+        <v>1.188894063831583</v>
       </c>
       <c r="F3">
-        <v>0.5878721231340549</v>
+        <v>0.4139497254964652</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.008887971239236403</v>
       </c>
       <c r="I3">
-        <v>0.1932491162932433</v>
+        <v>0.003878605045691597</v>
       </c>
       <c r="J3">
-        <v>0.0652512007076389</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1546909159828456</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6245316173048536</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.304927839279742</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.154059346008097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.99896243538717</v>
+        <v>2.766679147842069</v>
       </c>
       <c r="C4">
-        <v>0.5369811744959918</v>
+        <v>0.8952346633636523</v>
       </c>
       <c r="D4">
-        <v>0.1118467349245051</v>
+        <v>0.04241187125809631</v>
       </c>
       <c r="E4">
-        <v>0.07093559723428555</v>
+        <v>1.081701169252653</v>
       </c>
       <c r="F4">
-        <v>0.5746258523045711</v>
+        <v>0.3920765880354793</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.007020168735879961</v>
       </c>
       <c r="I4">
-        <v>0.2011861315371739</v>
+        <v>0.002879723990023564</v>
       </c>
       <c r="J4">
-        <v>0.06503645709371142</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1600077516460452</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5677272419193358</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.286181155012002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.109510498210071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.917179163693447</v>
+        <v>2.654560017410518</v>
       </c>
       <c r="C5">
-        <v>0.5154625582542849</v>
+        <v>0.8631708517123968</v>
       </c>
       <c r="D5">
-        <v>0.1090906239099141</v>
+        <v>0.04107678837682727</v>
       </c>
       <c r="E5">
-        <v>0.07004315682087281</v>
+        <v>1.038058126575621</v>
       </c>
       <c r="F5">
-        <v>0.5696185099196001</v>
+        <v>0.3827112605719449</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.006306864539327384</v>
       </c>
       <c r="I5">
-        <v>0.2046312423271033</v>
+        <v>0.002577942437972602</v>
       </c>
       <c r="J5">
-        <v>0.0649874902007781</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.1619868381275786</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5446128680562765</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.279594041842842</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.089836348717142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.903599083184105</v>
+        <v>2.635899809196303</v>
       </c>
       <c r="C6">
-        <v>0.5118891629948621</v>
+        <v>0.8594988636565688</v>
       </c>
       <c r="D6">
-        <v>0.1086341868161327</v>
+        <v>0.0409404739862822</v>
       </c>
       <c r="E6">
-        <v>0.06989655460446897</v>
+        <v>1.030796518571833</v>
       </c>
       <c r="F6">
-        <v>0.568810012525141</v>
+        <v>0.3804342550673923</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.006189699693561868</v>
       </c>
       <c r="I6">
-        <v>0.2052157466929927</v>
+        <v>0.002606627996887489</v>
       </c>
       <c r="J6">
-        <v>0.06498163608060636</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.1619739875860802</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5407765316319129</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.278562104763694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.084191653589954</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.997859463360953</v>
+        <v>2.765068673767018</v>
       </c>
       <c r="C7">
-        <v>0.5366909790346028</v>
+        <v>0.8993099670875324</v>
       </c>
       <c r="D7">
-        <v>0.1118094828447127</v>
+        <v>0.04262748839399677</v>
       </c>
       <c r="E7">
-        <v>0.07092345426179847</v>
+        <v>1.081064907124968</v>
       </c>
       <c r="F7">
-        <v>0.5745567682955155</v>
+        <v>0.389953205428121</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.007005869520004038</v>
       </c>
       <c r="I7">
-        <v>0.2012317530610908</v>
+        <v>0.003067820463851234</v>
       </c>
       <c r="J7">
-        <v>0.06503564297128506</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.1590875232415385</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5674153879948136</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.286088135760451</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.102674114976466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.413987867218623</v>
+        <v>3.334265768782927</v>
       </c>
       <c r="C8">
-        <v>0.6461488660570467</v>
+        <v>1.071662873585609</v>
       </c>
       <c r="D8">
-        <v>0.1260075197565982</v>
+        <v>0.04986357108186468</v>
       </c>
       <c r="E8">
-        <v>0.07569480245924254</v>
+        <v>1.303456529115024</v>
       </c>
       <c r="F8">
-        <v>0.6034042078377411</v>
+        <v>0.4351788775714667</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01105460990817966</v>
       </c>
       <c r="I8">
-        <v>0.1855275629558939</v>
+        <v>0.005351284137395496</v>
       </c>
       <c r="J8">
-        <v>0.06561716001143481</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.1481290061642575</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6852887174157019</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.328698618159308</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.194539153606428</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.232608343245261</v>
+        <v>4.448942191516835</v>
       </c>
       <c r="C9">
-        <v>0.8613629193832821</v>
+        <v>1.405920963926917</v>
       </c>
       <c r="D9">
-        <v>0.1546220882530349</v>
+        <v>0.06370579268428145</v>
       </c>
       <c r="E9">
-        <v>0.08600872819421923</v>
+        <v>1.743029614434633</v>
       </c>
       <c r="F9">
-        <v>0.6740538423042253</v>
+        <v>0.5331067991718612</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.02090535058792642</v>
       </c>
       <c r="I9">
-        <v>0.1621633918434178</v>
+        <v>0.01144015664790388</v>
       </c>
       <c r="J9">
-        <v>0.0681170722235187</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.1318327948626212</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9182536404635186</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.450261429483248</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.40370823828809</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.837723176344525</v>
+        <v>5.26744741563266</v>
       </c>
       <c r="C10">
-        <v>1.020385914480926</v>
+        <v>1.652271130570341</v>
       </c>
       <c r="D10">
-        <v>0.1762238024297034</v>
+        <v>0.07544620951745173</v>
       </c>
       <c r="E10">
-        <v>0.09426732143528227</v>
+        <v>1.966862665478246</v>
       </c>
       <c r="F10">
-        <v>0.7361121913202169</v>
+        <v>0.5978622643673503</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.02884508828211896</v>
       </c>
       <c r="I10">
-        <v>0.1502218073713522</v>
+        <v>0.0173077218640314</v>
       </c>
       <c r="J10">
-        <v>0.07091051366458245</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.1190417343212467</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.091218012615016</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.567029170770525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.533225446671793</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.114314281640986</v>
+        <v>5.631596834867707</v>
       </c>
       <c r="C11">
-        <v>1.093063107682951</v>
+        <v>1.72741176718921</v>
       </c>
       <c r="D11">
-        <v>0.1862025736328974</v>
+        <v>0.09408870697463101</v>
       </c>
       <c r="E11">
-        <v>0.09819552335831716</v>
+        <v>1.276383331279106</v>
       </c>
       <c r="F11">
-        <v>0.7669244306333667</v>
+        <v>0.5356573328740026</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.04414043495945918</v>
       </c>
       <c r="I11">
-        <v>0.1460894071856593</v>
+        <v>0.01933783047490412</v>
       </c>
       <c r="J11">
-        <v>0.07241971132118152</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.09039225277163787</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.170465611587304</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.627139834946433</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.300132639822152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.219287396085804</v>
+        <v>5.766613441849927</v>
       </c>
       <c r="C12">
-        <v>1.120644686209118</v>
+        <v>1.731085287150336</v>
       </c>
       <c r="D12">
-        <v>0.1900054366101784</v>
+        <v>0.1080927744109061</v>
       </c>
       <c r="E12">
-        <v>0.09970975184898379</v>
+        <v>0.7787703238838901</v>
       </c>
       <c r="F12">
-        <v>0.778997358148402</v>
+        <v>0.4752122475733103</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.07987591551577111</v>
       </c>
       <c r="I12">
-        <v>0.1447265253687604</v>
+        <v>0.0195226359107048</v>
       </c>
       <c r="J12">
-        <v>0.07302826065016177</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.07378579927076245</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.200570961939235</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.651000673029387</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.100184323736329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.196668406069762</v>
+        <v>5.731671514037373</v>
       </c>
       <c r="C13">
-        <v>1.114701617741616</v>
+        <v>1.687205279593627</v>
       </c>
       <c r="D13">
-        <v>0.1891853115476323</v>
+        <v>0.119532360850144</v>
       </c>
       <c r="E13">
-        <v>0.09938241341069798</v>
+        <v>0.4010225376464263</v>
       </c>
       <c r="F13">
-        <v>0.7763786588654966</v>
+        <v>0.4095640356238945</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1326656792655569</v>
       </c>
       <c r="I13">
-        <v>0.1450108118934921</v>
+        <v>0.01855547965392557</v>
       </c>
       <c r="J13">
-        <v>0.07289550467130113</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.06373322713823981</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.194082718705502</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.645811416067517</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0.9039712405878788</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.12294552628714</v>
+        <v>5.630314696511846</v>
       </c>
       <c r="C14">
-        <v>1.095330980532765</v>
+        <v>1.636654637413358</v>
       </c>
       <c r="D14">
-        <v>0.1865149405398654</v>
+        <v>0.1265084130009058</v>
       </c>
       <c r="E14">
-        <v>0.09831955227038947</v>
+        <v>0.2094193275399761</v>
       </c>
       <c r="F14">
-        <v>0.7679093580610186</v>
+        <v>0.3615986240109237</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1800523071951687</v>
       </c>
       <c r="I14">
-        <v>0.1459731440676144</v>
+        <v>0.01747163194286028</v>
       </c>
       <c r="J14">
-        <v>0.0724690179570544</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.05999799122014826</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.172940384114654</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.62908031323073</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.7700148703808196</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.077819986930024</v>
+        <v>5.569278294444871</v>
       </c>
       <c r="C15">
-        <v>1.083474128909245</v>
+        <v>1.616158473427731</v>
       </c>
       <c r="D15">
-        <v>0.184882472088276</v>
+        <v>0.1276147621484967</v>
       </c>
       <c r="E15">
-        <v>0.09767206074019441</v>
+        <v>0.1717241467311652</v>
       </c>
       <c r="F15">
-        <v>0.76277545666008</v>
+        <v>0.3479638845759752</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1918987358698274</v>
       </c>
       <c r="I15">
-        <v>0.1465893685921458</v>
+        <v>0.01705160174799403</v>
       </c>
       <c r="J15">
-        <v>0.07221269293179944</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.05991794491247093</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.160003054097828</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.618977927548627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.7348858656733341</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.819677568585405</v>
+        <v>5.223126288558831</v>
       </c>
       <c r="C16">
-        <v>1.015644058127037</v>
+        <v>1.522692627663901</v>
       </c>
       <c r="D16">
-        <v>0.17557491463171</v>
+        <v>0.1199259425755486</v>
       </c>
       <c r="E16">
-        <v>0.09401422494486766</v>
+        <v>0.1674438139426826</v>
       </c>
       <c r="F16">
-        <v>0.7341533156481432</v>
+        <v>0.3332948292079649</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1766806474887801</v>
       </c>
       <c r="I16">
-        <v>0.1505192871054426</v>
+        <v>0.01477585429573125</v>
       </c>
       <c r="J16">
-        <v>0.07081691344814089</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.06639401077157103</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.086051600950412</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.563249268044075</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.7181900113819069</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.661684184537023</v>
+        <v>5.012077237263327</v>
       </c>
       <c r="C17">
-        <v>0.9741269030168951</v>
+        <v>1.478041768013895</v>
       </c>
       <c r="D17">
-        <v>0.1699055224442958</v>
+        <v>0.1103341825035073</v>
       </c>
       <c r="E17">
-        <v>0.09181556497517462</v>
+        <v>0.2520985109750953</v>
       </c>
       <c r="F17">
-        <v>0.7172789944818163</v>
+        <v>0.3471053314945109</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1379596670266352</v>
       </c>
       <c r="I17">
-        <v>0.1532734522917458</v>
+        <v>0.01364278941369701</v>
       </c>
       <c r="J17">
-        <v>0.07002361915141364</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.07315340113485025</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.040839651530632</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.530916231520308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.7747752545164559</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.570932088175311</v>
+        <v>4.892887768818412</v>
       </c>
       <c r="C18">
-        <v>0.9502782685479474</v>
+        <v>1.466238588353406</v>
       </c>
       <c r="D18">
-        <v>0.1666588040634878</v>
+        <v>0.09820850138035553</v>
       </c>
       <c r="E18">
-        <v>0.09056694741128268</v>
+        <v>0.4863364574607232</v>
       </c>
       <c r="F18">
-        <v>0.7078141534342848</v>
+        <v>0.3897177567744237</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.08585351462773616</v>
       </c>
       <c r="I18">
-        <v>0.1549789616412696</v>
+        <v>0.0130980265950793</v>
       </c>
       <c r="J18">
-        <v>0.0695896038235837</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.08286370672139043</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.014887185863557</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.512971326226506</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0.9119611864155814</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.54022457565037</v>
+        <v>4.856104504787197</v>
       </c>
       <c r="C19">
-        <v>0.9422084987567132</v>
+        <v>1.490827669255168</v>
       </c>
       <c r="D19">
-        <v>0.165561888105529</v>
+        <v>0.086130300636448</v>
       </c>
       <c r="E19">
-        <v>0.09014687334981986</v>
+        <v>0.92209768266558</v>
       </c>
       <c r="F19">
-        <v>0.704649894785085</v>
+        <v>0.4520816173422446</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.04342418704915474</v>
       </c>
       <c r="I19">
-        <v>0.1555768257400487</v>
+        <v>0.01358592299640815</v>
       </c>
       <c r="J19">
-        <v>0.06944639725242396</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.09604387594126962</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.006108672053621</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.507004795530719</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.1072237797882</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.678489965696656</v>
+        <v>5.052056154602894</v>
       </c>
       <c r="C20">
-        <v>0.9785431906782094</v>
+        <v>1.601676009485459</v>
       </c>
       <c r="D20">
-        <v>0.1705075569987144</v>
+        <v>0.07317502382478125</v>
       </c>
       <c r="E20">
-        <v>0.09204794633005164</v>
+        <v>1.903482961358364</v>
       </c>
       <c r="F20">
-        <v>0.7190501341306259</v>
+        <v>0.5738888694497462</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02658757559976399</v>
       </c>
       <c r="I20">
-        <v>0.1529675982643752</v>
+        <v>0.01626233766831309</v>
       </c>
       <c r="J20">
-        <v>0.07010574284545967</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.1193281701527038</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.045647030033948</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.534289988954072</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.476534484645782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.14459300104113</v>
+        <v>5.68240209422919</v>
       </c>
       <c r="C21">
-        <v>1.101018869917823</v>
+        <v>1.797198209210308</v>
       </c>
       <c r="D21">
-        <v>0.1872986198141575</v>
+        <v>0.07992427059151908</v>
       </c>
       <c r="E21">
-        <v>0.09863099837278</v>
+        <v>2.235515694950848</v>
       </c>
       <c r="F21">
-        <v>0.7703857232539519</v>
+        <v>0.6429529158010041</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.03442569384185612</v>
       </c>
       <c r="I21">
-        <v>0.1456848768163681</v>
+        <v>0.02142161551006883</v>
       </c>
       <c r="J21">
-        <v>0.07259325889170043</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.1155400574608763</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.179147671331535</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.633964062911986</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.638205002706172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.450605766675096</v>
+        <v>6.094705847281546</v>
       </c>
       <c r="C22">
-        <v>1.181421563501885</v>
+        <v>1.917234685132598</v>
       </c>
       <c r="D22">
-        <v>0.1984143081131862</v>
+        <v>0.0847425929654122</v>
       </c>
       <c r="E22">
-        <v>0.1030901267761912</v>
+        <v>2.401551544711509</v>
       </c>
       <c r="F22">
-        <v>0.8063147529977499</v>
+        <v>0.6864395104097127</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.03953585317563491</v>
       </c>
       <c r="I22">
-        <v>0.1421102496180673</v>
+        <v>0.02483957378962742</v>
       </c>
       <c r="J22">
-        <v>0.07443638123064744</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.1133470171713178</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.266965375072843</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.70555655479302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.738406654097076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.287138496574357</v>
+        <v>5.874710444937818</v>
       </c>
       <c r="C23">
-        <v>1.138472202959292</v>
+        <v>1.847521414332562</v>
       </c>
       <c r="D23">
-        <v>0.1924678937664055</v>
+        <v>0.08187999545617686</v>
       </c>
       <c r="E23">
-        <v>0.1006951414918973</v>
+        <v>2.312878585587853</v>
       </c>
       <c r="F23">
-        <v>0.7869092905213506</v>
+        <v>0.665481101847746</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.03678128039373663</v>
       </c>
       <c r="I23">
-        <v>0.1439043877115509</v>
+        <v>0.02274708030249517</v>
       </c>
       <c r="J23">
-        <v>0.07343181282018207</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.1155074484728935</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.220038315706887</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.666723580537052</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.692315775281543</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.670891824877685</v>
+        <v>5.042750616213709</v>
       </c>
       <c r="C24">
-        <v>0.9765465252073398</v>
+        <v>1.594132244379807</v>
       </c>
       <c r="D24">
-        <v>0.1702353378163082</v>
+        <v>0.07153088348317738</v>
       </c>
       <c r="E24">
-        <v>0.09194283883994103</v>
+        <v>1.979330450259098</v>
       </c>
       <c r="F24">
-        <v>0.7182486679881634</v>
+        <v>0.5847385180421014</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02708468483839432</v>
       </c>
       <c r="I24">
-        <v>0.1531054956704381</v>
+        <v>0.01591231252592351</v>
       </c>
       <c r="J24">
-        <v>0.07006854621718261</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.1232824866879767</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.043473489205091</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.532762714887184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.512704102678896</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.010665906137319</v>
+        <v>4.147218570866642</v>
       </c>
       <c r="C25">
-        <v>0.8030260319747242</v>
+        <v>1.323277224514072</v>
       </c>
       <c r="D25">
-        <v>0.1467877384371121</v>
+        <v>0.06038446819411547</v>
       </c>
       <c r="E25">
-        <v>0.08310639348973936</v>
+        <v>1.623510217371347</v>
       </c>
       <c r="F25">
-        <v>0.6532784290108182</v>
+        <v>0.5022965282517262</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.01799518983421033</v>
       </c>
       <c r="I25">
-        <v>0.1676196363510272</v>
+        <v>0.009889575308932308</v>
       </c>
       <c r="J25">
-        <v>0.06728254875052286</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.1341713981555355</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8549671837807864</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.412882158217627</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.333133680632386</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_61/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.488461907651413</v>
+        <v>3.489973071682812</v>
       </c>
       <c r="C2">
-        <v>1.112193896598342</v>
+        <v>1.151861279240165</v>
       </c>
       <c r="D2">
-        <v>0.05149459367446951</v>
+        <v>0.05351246236808294</v>
       </c>
       <c r="E2">
-        <v>1.363956242909452</v>
+        <v>1.364560470761489</v>
       </c>
       <c r="F2">
-        <v>0.4506029711507011</v>
+        <v>0.4320219538212413</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01227702209079279</v>
+        <v>0.01234456957725011</v>
       </c>
       <c r="I2">
-        <v>0.005851956265372937</v>
+        <v>0.006107818893564598</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.1467002555275538</v>
+        <v>0.1369237286427385</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1005880538225075</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01990251447285374</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -472,48 +478,54 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.229765314890614</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.167886129886654</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.041476812874294</v>
+        <v>3.044589583273705</v>
       </c>
       <c r="C3">
-        <v>0.9774745145306554</v>
+        <v>1.003901641989358</v>
       </c>
       <c r="D3">
-        <v>0.04586251013221698</v>
+        <v>0.04715929274102848</v>
       </c>
       <c r="E3">
-        <v>1.188894063831583</v>
+        <v>1.19021144201443</v>
       </c>
       <c r="F3">
-        <v>0.4139497254964652</v>
+        <v>0.3997054160623676</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.008887971239236403</v>
+        <v>0.00902214481261672</v>
       </c>
       <c r="I3">
-        <v>0.003878605045691597</v>
+        <v>0.004276920324556066</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.1546909159828456</v>
+        <v>0.1457628410750544</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1066879568171704</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0210822891000424</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -525,48 +537,54 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.154059346008097</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.105595961456658</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.766679147842069</v>
+        <v>2.770648923008991</v>
       </c>
       <c r="C4">
-        <v>0.8952346633636523</v>
+        <v>0.9137897286281031</v>
       </c>
       <c r="D4">
-        <v>0.04241187125809631</v>
+        <v>0.04328038300806014</v>
       </c>
       <c r="E4">
-        <v>1.081701169252653</v>
+        <v>1.083412456573001</v>
       </c>
       <c r="F4">
-        <v>0.3920765880354793</v>
+        <v>0.3803450062243812</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.007020168735879961</v>
+        <v>0.007182296023500179</v>
       </c>
       <c r="I4">
-        <v>0.002879723990023564</v>
+        <v>0.003330150592076198</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.1600077516460452</v>
+        <v>0.1515234625344153</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1106614011190779</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.02234540473099322</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -578,48 +596,54 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.109510498210071</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.068797859832387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.654560017410518</v>
+        <v>2.658850867415595</v>
       </c>
       <c r="C5">
-        <v>0.8631708517123968</v>
+        <v>0.8785412590565613</v>
       </c>
       <c r="D5">
-        <v>0.04107678837682727</v>
+        <v>0.04177256409194285</v>
       </c>
       <c r="E5">
-        <v>1.038058126575621</v>
+        <v>1.039920320839741</v>
       </c>
       <c r="F5">
-        <v>0.3827112605719449</v>
+        <v>0.3720020353196247</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006306864539327384</v>
+        <v>0.006477393086867622</v>
       </c>
       <c r="I5">
-        <v>0.002577942437972602</v>
+        <v>0.003053705910244453</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.1619868381275786</v>
+        <v>0.1536930426592296</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1121822825192744</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.02295169198454161</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -631,48 +655,54 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.089836348717142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.052286661041578</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.635899809196303</v>
+        <v>2.640241749364179</v>
       </c>
       <c r="C6">
-        <v>0.8594988636565688</v>
+        <v>0.8742940793569574</v>
       </c>
       <c r="D6">
-        <v>0.0409404739862822</v>
+        <v>0.04160554375135916</v>
       </c>
       <c r="E6">
-        <v>1.030796518571833</v>
+        <v>1.032683320803315</v>
       </c>
       <c r="F6">
-        <v>0.3804342550673923</v>
+        <v>0.3699352095408486</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006189699693561868</v>
+        <v>0.006361448894772193</v>
       </c>
       <c r="I6">
-        <v>0.002606627996887489</v>
+        <v>0.003102625318007313</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.1619739875860802</v>
+        <v>0.1537453632070225</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1122497604132846</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.02301057214271962</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -684,48 +714,54 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.084191653589954</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.047310165863934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.765068673767018</v>
+        <v>2.769041426776027</v>
       </c>
       <c r="C7">
-        <v>0.8993099670875324</v>
+        <v>0.9176912100881509</v>
       </c>
       <c r="D7">
-        <v>0.04262748839399677</v>
+        <v>0.04348800925170337</v>
       </c>
       <c r="E7">
-        <v>1.081064907124968</v>
+        <v>1.082778642666469</v>
       </c>
       <c r="F7">
-        <v>0.389953205428121</v>
+        <v>0.3783555030965218</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.007005869520004038</v>
+        <v>0.007168135010243437</v>
       </c>
       <c r="I7">
-        <v>0.003067820463851234</v>
+        <v>0.003561272320132147</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.1590875232415385</v>
+        <v>0.1507068919215158</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1101895697125972</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.02220091143769665</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -737,48 +773,54 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.102674114976466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.06242956097266</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.334265768782927</v>
+        <v>3.336357770129268</v>
       </c>
       <c r="C8">
-        <v>1.071662873585609</v>
+        <v>1.10656445653882</v>
       </c>
       <c r="D8">
-        <v>0.04986357108186468</v>
+        <v>0.05162419004746255</v>
       </c>
       <c r="E8">
-        <v>1.303456529115024</v>
+        <v>1.304317641350892</v>
       </c>
       <c r="F8">
-        <v>0.4351788775714667</v>
+        <v>0.4182988019319183</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.01105460990817966</v>
+        <v>0.01114808596831054</v>
       </c>
       <c r="I8">
-        <v>0.005351284137395496</v>
+        <v>0.005717989232453924</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.1481290061642575</v>
+        <v>0.1388209168443577</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1020880506864685</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01992921022538852</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -790,48 +832,54 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.194539153606428</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.13801383294998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.448942191516835</v>
+        <v>4.446143163254646</v>
       </c>
       <c r="C9">
-        <v>1.405920963926917</v>
+        <v>1.475469320881302</v>
       </c>
       <c r="D9">
-        <v>0.06370579268428145</v>
+        <v>0.06735411547420966</v>
       </c>
       <c r="E9">
-        <v>1.743029614434633</v>
+        <v>1.741801953104158</v>
       </c>
       <c r="F9">
-        <v>0.5331067991718612</v>
+        <v>0.5043682429954117</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.02090535058792642</v>
+        <v>0.02074787829166835</v>
       </c>
       <c r="I9">
-        <v>0.01144015664790388</v>
+        <v>0.01117099096048424</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.1318327948626212</v>
+        <v>0.1198274672031303</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.08874679032648558</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.02029658626241826</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -843,48 +891,54 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.40370823828809</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.310305715329662</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.26744741563266</v>
+        <v>5.260141039176517</v>
       </c>
       <c r="C10">
-        <v>1.652271130570341</v>
+        <v>1.746107696660147</v>
       </c>
       <c r="D10">
-        <v>0.07544620951745173</v>
+        <v>0.08048494971968978</v>
       </c>
       <c r="E10">
-        <v>1.966862665478246</v>
+        <v>1.963870308406214</v>
       </c>
       <c r="F10">
-        <v>0.5978622643673503</v>
+        <v>0.5608871337469026</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.02884508828211896</v>
+        <v>0.02842649143221232</v>
       </c>
       <c r="I10">
-        <v>0.0173077218640314</v>
+        <v>0.01636737408959554</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.1190417343212467</v>
+        <v>0.1054660474151561</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07922896464488893</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.02242412242494574</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -896,48 +950,54 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.533225446671793</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.414653045468697</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.631596834867707</v>
+        <v>5.622903857870426</v>
       </c>
       <c r="C11">
-        <v>1.72741176718921</v>
+        <v>1.811179375442464</v>
       </c>
       <c r="D11">
-        <v>0.09408870697463101</v>
+        <v>0.09907551861566333</v>
       </c>
       <c r="E11">
-        <v>1.276383331279106</v>
+        <v>1.273580108804765</v>
       </c>
       <c r="F11">
-        <v>0.5356573328740026</v>
+        <v>0.5056294489591124</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.04414043495945918</v>
+        <v>0.0436963784955644</v>
       </c>
       <c r="I11">
-        <v>0.01933783047490412</v>
+        <v>0.01828270877209714</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.09039225277163787</v>
+        <v>0.08247112992124173</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06984391456513883</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.01597111726955625</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -949,48 +1009,54 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.300132639822152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.207317797251477</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.766613441849927</v>
+        <v>5.757681189996163</v>
       </c>
       <c r="C12">
-        <v>1.731085287150336</v>
+        <v>1.80109938749041</v>
       </c>
       <c r="D12">
-        <v>0.1080927744109061</v>
+        <v>0.1125870374665396</v>
       </c>
       <c r="E12">
-        <v>0.7787703238838901</v>
+        <v>0.7764184433351602</v>
       </c>
       <c r="F12">
-        <v>0.4752122475733103</v>
+        <v>0.4520231785410971</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07987591551577111</v>
+        <v>0.07945535130870951</v>
       </c>
       <c r="I12">
-        <v>0.0195226359107048</v>
+        <v>0.01843434396646693</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.07378579927076245</v>
+        <v>0.06987367039410231</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06556944405112564</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.0111844605562208</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1002,48 +1068,54 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.100184323736329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.031030993720037</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.731671514037373</v>
+        <v>5.723405953719862</v>
       </c>
       <c r="C13">
-        <v>1.687205279593627</v>
+        <v>1.739898292482849</v>
       </c>
       <c r="D13">
-        <v>0.119532360850144</v>
+        <v>0.1231483715729382</v>
       </c>
       <c r="E13">
-        <v>0.4010225376464263</v>
+        <v>0.3992357703890903</v>
       </c>
       <c r="F13">
-        <v>0.4095640356238945</v>
+        <v>0.3936333781826491</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1326656792655569</v>
+        <v>0.132301940093825</v>
       </c>
       <c r="I13">
-        <v>0.01855547965392557</v>
+        <v>0.01757543257053307</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.06373322713823981</v>
+        <v>0.06292327281960652</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06377877325440795</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.007213021249380169</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1055,48 +1127,54 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.9039712405878788</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8585611526438726</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.630314696511846</v>
+        <v>5.622887503274569</v>
       </c>
       <c r="C14">
-        <v>1.636654637413358</v>
+        <v>1.675733362634844</v>
       </c>
       <c r="D14">
-        <v>0.1265084130009058</v>
+        <v>0.1293113417359137</v>
       </c>
       <c r="E14">
-        <v>0.2094193275399761</v>
+        <v>0.2080231239709747</v>
       </c>
       <c r="F14">
-        <v>0.3615986240109237</v>
+        <v>0.3507775679595682</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1800523071951687</v>
+        <v>0.1797382589931544</v>
       </c>
       <c r="I14">
-        <v>0.01747163194286028</v>
+        <v>0.01663849411147122</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.05999799122014826</v>
+        <v>0.0607764440448344</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06348641308022385</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.005105004550961745</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1108,48 +1186,54 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7700148703808196</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7405834397487467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.569278294444871</v>
+        <v>5.562250795260752</v>
       </c>
       <c r="C15">
-        <v>1.616158473427731</v>
+        <v>1.65117050226479</v>
       </c>
       <c r="D15">
-        <v>0.1276147621484967</v>
+        <v>0.130152226815909</v>
       </c>
       <c r="E15">
-        <v>0.1717241467311652</v>
+        <v>0.1704449105681114</v>
       </c>
       <c r="F15">
-        <v>0.3479638845759752</v>
+        <v>0.3385507561288748</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1918987358698274</v>
+        <v>0.1916048175352074</v>
       </c>
       <c r="I15">
-        <v>0.01705160174799403</v>
+        <v>0.01630664751132738</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.05991794491247093</v>
+        <v>0.06099703513807198</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06366727892186674</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.00469728818388937</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1161,48 +1245,54 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7348858656733341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7096913392451256</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.223126288558831</v>
+        <v>5.217995240022617</v>
       </c>
       <c r="C16">
-        <v>1.522692627663901</v>
+        <v>1.551313207236319</v>
       </c>
       <c r="D16">
-        <v>0.1199259425755486</v>
+        <v>0.1219963438805252</v>
       </c>
       <c r="E16">
-        <v>0.1674438139426826</v>
+        <v>0.1664779554953597</v>
       </c>
       <c r="F16">
-        <v>0.3332948292079649</v>
+        <v>0.3255484701180791</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1766806474887801</v>
+        <v>0.1764720803033271</v>
       </c>
       <c r="I16">
-        <v>0.01477585429573125</v>
+        <v>0.01434579264816804</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926776106</v>
       </c>
       <c r="K16">
-        <v>0.06639401077157103</v>
+        <v>0.06715094078041561</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.06589581675043465</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.005275162467849981</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1214,48 +1304,54 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7181900113819069</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.6973160709881938</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.012077237263327</v>
+        <v>5.007931823424599</v>
       </c>
       <c r="C17">
-        <v>1.478041768013895</v>
+        <v>1.508888856455485</v>
       </c>
       <c r="D17">
-        <v>0.1103341825035073</v>
+        <v>0.1125030245221836</v>
       </c>
       <c r="E17">
-        <v>0.2520985109750953</v>
+        <v>0.251229775248369</v>
       </c>
       <c r="F17">
-        <v>0.3471053314945109</v>
+        <v>0.3380778976953778</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1379596670266352</v>
+        <v>0.1377910917567675</v>
       </c>
       <c r="I17">
-        <v>0.01364278941369701</v>
+        <v>0.01337424794214126</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234339</v>
       </c>
       <c r="K17">
-        <v>0.07315340113485025</v>
+        <v>0.07299667576321545</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06812008441879214</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.006566116831279167</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1267,48 +1363,54 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.7747752545164559</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.7493953933444715</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.892887768818412</v>
+        <v>4.889088006243696</v>
       </c>
       <c r="C18">
-        <v>1.466238588353406</v>
+        <v>1.507050348886537</v>
       </c>
       <c r="D18">
-        <v>0.09820850138035553</v>
+        <v>0.1009100775224283</v>
       </c>
       <c r="E18">
-        <v>0.4863364574607232</v>
+        <v>0.4853817812984431</v>
       </c>
       <c r="F18">
-        <v>0.3897177567744237</v>
+        <v>0.3763933753809141</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.08585351462773616</v>
+        <v>0.08569170911945179</v>
       </c>
       <c r="I18">
-        <v>0.0130980265950793</v>
+        <v>0.01283501055767555</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146320727</v>
       </c>
       <c r="K18">
-        <v>0.08286370672139043</v>
+        <v>0.08073190395023122</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.07126947497743208</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.008952726515572884</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1320,48 +1422,54 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.9119611864155814</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.8724956140353726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.856104504787197</v>
+        <v>4.85205863517848</v>
       </c>
       <c r="C19">
-        <v>1.490827669255168</v>
+        <v>1.546978324948611</v>
       </c>
       <c r="D19">
-        <v>0.086130300636448</v>
+        <v>0.08954977187104163</v>
       </c>
       <c r="E19">
-        <v>0.92209768266558</v>
+        <v>0.9208345238500044</v>
       </c>
       <c r="F19">
-        <v>0.4520816173422446</v>
+        <v>0.4319903132192024</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.04342418704915474</v>
+        <v>0.04323426712399225</v>
       </c>
       <c r="I19">
-        <v>0.01358592299640815</v>
+        <v>0.01330658606464485</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768438788</v>
       </c>
       <c r="K19">
-        <v>0.09604387594126962</v>
+        <v>0.09065119381302722</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07530058508814808</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.01257692694592016</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1373,48 +1481,54 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.1072237797882</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.045223264556228</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.052056154602894</v>
+        <v>5.046027581534474</v>
       </c>
       <c r="C20">
-        <v>1.601676009485459</v>
+        <v>1.688712079551522</v>
       </c>
       <c r="D20">
-        <v>0.07317502382478125</v>
+        <v>0.07783414917519593</v>
       </c>
       <c r="E20">
-        <v>1.903482961358364</v>
+        <v>1.900984011771456</v>
       </c>
       <c r="F20">
-        <v>0.5738888694497462</v>
+        <v>0.5396569792950316</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02658757559976399</v>
+        <v>0.02624502397784045</v>
       </c>
       <c r="I20">
-        <v>0.01626233766831309</v>
+        <v>0.01567758483368387</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.1193281701527038</v>
+        <v>0.1067053891248655</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.08074384448952543</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.0207476870573533</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1426,48 +1540,54 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.476534484645782</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.366659834744723</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.68240209422919</v>
+        <v>5.672325002147716</v>
       </c>
       <c r="C21">
-        <v>1.797198209210308</v>
+        <v>1.90711291827381</v>
       </c>
       <c r="D21">
-        <v>0.07992427059151908</v>
+        <v>0.08578387074189919</v>
       </c>
       <c r="E21">
-        <v>2.235515694950848</v>
+        <v>2.231338281860559</v>
       </c>
       <c r="F21">
-        <v>0.6429529158010041</v>
+        <v>0.600062495897923</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.03442569384185612</v>
+        <v>0.0338275774078256</v>
       </c>
       <c r="I21">
-        <v>0.02142161551006883</v>
+        <v>0.0201660184492285</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752089</v>
       </c>
       <c r="K21">
-        <v>0.1155400574608763</v>
+        <v>0.1002781791473009</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.07532179891630175</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.02488535809472658</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1479,48 +1599,54 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.638205002706172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.500894561355892</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.094705847281546</v>
+        <v>6.081744881258373</v>
       </c>
       <c r="C22">
-        <v>1.917234685132598</v>
+        <v>2.041197920793593</v>
       </c>
       <c r="D22">
-        <v>0.0847425929654122</v>
+        <v>0.09136561018603828</v>
       </c>
       <c r="E22">
-        <v>2.401551544711509</v>
+        <v>2.396230371592694</v>
       </c>
       <c r="F22">
-        <v>0.6864395104097127</v>
+        <v>0.638119439548305</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.03953585317563491</v>
+        <v>0.03875299907933449</v>
       </c>
       <c r="I22">
-        <v>0.02483957378962742</v>
+        <v>0.02302305060766585</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>0.1133470171713178</v>
+        <v>0.09642137974573828</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.0718817965335985</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.02818622559162876</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1532,48 +1658,54 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.738406654097076</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.583981250046833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.874710444937818</v>
+        <v>5.863312535165562</v>
       </c>
       <c r="C23">
-        <v>1.847521414332562</v>
+        <v>1.964042847845576</v>
       </c>
       <c r="D23">
-        <v>0.08187999545617686</v>
+        <v>0.08809543103917861</v>
       </c>
       <c r="E23">
-        <v>2.312878585587853</v>
+        <v>2.308175146365016</v>
       </c>
       <c r="F23">
-        <v>0.665481101847746</v>
+        <v>0.6198880781734601</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.03678128039373663</v>
+        <v>0.03609894405336878</v>
       </c>
       <c r="I23">
-        <v>0.02274708030249517</v>
+        <v>0.0211729969767287</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787806356</v>
       </c>
       <c r="K23">
-        <v>0.1155074484728935</v>
+        <v>0.09928063356906058</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07396696471730912</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.02674354067110407</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1585,48 +1717,54 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.692315775281543</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.546386318976062</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.042750616213709</v>
+        <v>5.036694175364801</v>
       </c>
       <c r="C24">
-        <v>1.594132244379807</v>
+        <v>1.682852375254242</v>
       </c>
       <c r="D24">
-        <v>0.07153088348317738</v>
+        <v>0.07622921459308429</v>
       </c>
       <c r="E24">
-        <v>1.979330450259098</v>
+        <v>1.976767544165256</v>
       </c>
       <c r="F24">
-        <v>0.5847385180421014</v>
+        <v>0.5493769782722993</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02708468483839432</v>
+        <v>0.02673581765801902</v>
       </c>
       <c r="I24">
-        <v>0.01591231252592351</v>
+        <v>0.01522285822450975</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.1232824866879767</v>
+        <v>0.1098100416731942</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.0819409248550329</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.02191043843109597</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1638,48 +1776,54 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.512704102678896</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.398778523409447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.147218570866642</v>
+        <v>4.145903351063509</v>
       </c>
       <c r="C25">
-        <v>1.323277224514072</v>
+        <v>1.383064912980103</v>
       </c>
       <c r="D25">
-        <v>0.06038446819411547</v>
+        <v>0.06350461153928677</v>
       </c>
       <c r="E25">
-        <v>1.623510217371347</v>
+        <v>1.622904264674801</v>
       </c>
       <c r="F25">
-        <v>0.5022965282517262</v>
+        <v>0.4771714304631729</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.01799518983421033</v>
+        <v>0.0179202546059325</v>
       </c>
       <c r="I25">
-        <v>0.009889575308932308</v>
+        <v>0.009915363216868478</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.1341713981555355</v>
+        <v>0.123228046798376</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.09155013956910274</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.01923963218407998</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1691,7 +1835,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.333133680632386</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.251125705914092</v>
       </c>
     </row>
   </sheetData>
